--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13017422.51</v>
+        <v>28552502.95</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>448876.64</v>
+        <v>571050.0600000001</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>890548.12</v>
+        <v>846317.17</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300610.27</v>
+        <v>289411.52</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>943592.29</v>
+        <v>943607.79</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697407.49</v>
+        <v>717293.3</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69514.81</v>
+        <v>87771.03999999999</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1568829.52</v>
+        <v>1569893.09</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>607857.08</v>
+        <v>607754.38</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1004669.19</v>
+        <v>1018549.43</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>714151.23</v>
+        <v>695074.91</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434606.17</v>
+        <v>404674.1</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>725065.84</v>
+        <v>729640.64</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362556.78</v>
+        <v>362462.63</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183155.08</v>
+        <v>1183672.94</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>256255.07</v>
+        <v>256181.59</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>582665.59</v>
+        <v>599978.73</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>618328.54</v>
+        <v>598666.11</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250621.39</v>
+        <v>250406.3</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>372054.98</v>
+        <v>371749.17</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183821.94</v>
+        <v>179165.87</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115281.35</v>
+        <v>130501.98</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168547.95</v>
+        <v>168614.24</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185653.02</v>
+        <v>158579.17</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280207.13</v>
+        <v>331102.18</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116283.32</v>
+        <v>123264.15</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40381.11</v>
+        <v>40391.37</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>125899</v>
+        <v>298061.13</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92464.78</v>
+        <v>92423.5</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13255.75</v>
+        <v>13246.41</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,217 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>113137.72</v>
+        <v>113105.31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>483810.19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>164236.16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6908.63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6255.44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>845868.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1168780.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>109049.46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>126899.18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>792057.37</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16532.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2449861.68</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>318781.31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>103565.13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>14880.99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>282780.02</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8029.04</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2936448.37</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>20711.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>13246.41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2797055.48</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2705185.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,275 +439,359 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28552502.95</v>
+        <v>331102.18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>365309.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571050.0600000001</v>
+        <v>846317.17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>819184.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>846317.17</v>
+        <v>123264.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>123274.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289411.52</v>
+        <v>168614.24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>178433.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>943607.79</v>
+        <v>289411.52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>289342.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717293.3</v>
+        <v>943607.79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>943595.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87771.03999999999</v>
+        <v>16532.01</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16532.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1569893.09</v>
+        <v>2449861.68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2450230.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>607754.38</v>
+        <v>40391.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39159.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1018549.43</v>
+        <v>8029.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8033.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>695074.91</v>
+        <v>14880.99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14883.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>404674.1</v>
+        <v>717293.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>628981.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>729640.64</v>
-      </c>
+        <v>87771.03999999999</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>362462.63</v>
+        <v>483810.19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>491519.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183672.94</v>
+        <v>2936448.37</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2902240.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>256181.59</v>
+        <v>1569893.09</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1537135.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>599978.73</v>
+        <v>607754.38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>607563.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>598666.11</v>
+        <v>6255.44</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6248.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250406.3</v>
+        <v>845868.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>845439.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>371749.17</v>
+        <v>1168780.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1169260.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179165.87</v>
+        <v>164236.16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>164274.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130501.98</v>
+        <v>318781.31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>318428.81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168614.24</v>
+        <v>6908.63</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6907.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158579.17</v>
+        <v>599978.73</v>
+      </c>
+      <c r="C25" t="n">
+        <v>647904.5699999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>331102.18</v>
+        <v>598666.11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>638404.61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123264.15</v>
+        <v>1018549.43</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1055118.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40391.37</v>
+        <v>695074.91</v>
+      </c>
+      <c r="C28" t="n">
+        <v>694045.97</v>
       </c>
     </row>
     <row r="29">
@@ -719,245 +803,331 @@
       <c r="B29" t="n">
         <v>298061.13</v>
       </c>
+      <c r="C29" t="n">
+        <v>298166.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>92423.5</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>3776352.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13246.41</v>
+        <v>92423.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>92432.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>113105.31</v>
+        <v>20711.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20703.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>483810.19</v>
+        <v>404674.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>413382.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164236.16</v>
+        <v>729640.64</v>
+      </c>
+      <c r="C34" t="n">
+        <v>739484.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6908.63</v>
+        <v>130501.98</v>
+      </c>
+      <c r="C35" t="n">
+        <v>126595.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6255.44</v>
+        <v>13246.41</v>
+      </c>
+      <c r="C36" t="n">
+        <v>18153.67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>845868.1</v>
+        <v>13246.41</v>
+      </c>
+      <c r="C37" t="n">
+        <v>18153.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1168780.8</v>
+        <v>109049.46</v>
+      </c>
+      <c r="C38" t="n">
+        <v>108967.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>109049.46</v>
+        <v>126899.18</v>
+      </c>
+      <c r="C39" t="n">
+        <v>126857.86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126899.18</v>
+        <v>113105.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>113087.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>792057.37</v>
+        <v>250406.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>253467.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16532.01</v>
+        <v>371749.17</v>
+      </c>
+      <c r="C42" t="n">
+        <v>371937.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2449861.68</v>
+        <v>158579.17</v>
+      </c>
+      <c r="C43" t="n">
+        <v>166670.66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>318781.31</v>
+        <v>362462.63</v>
+      </c>
+      <c r="C44" t="n">
+        <v>362622.93</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103565.13</v>
+        <v>256181.59</v>
+      </c>
+      <c r="C45" t="n">
+        <v>256133.99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14880.99</v>
+        <v>1183672.94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1247721.79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>282780.02</v>
+        <v>2797055.48</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2797333.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8029.04</v>
+        <v>2705185.73</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3035007.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2936448.37</v>
+        <v>792057.37</v>
+      </c>
+      <c r="C49" t="n">
+        <v>791305.73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20711.3</v>
+        <v>282780.02</v>
+      </c>
+      <c r="C50" t="n">
+        <v>265311.28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13246.41</v>
+        <v>179165.87</v>
+      </c>
+      <c r="C51" t="n">
+        <v>179215.94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2797055.48</v>
+        <v>103565.13</v>
+      </c>
+      <c r="C52" t="n">
+        <v>103625.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2705185.73</v>
+        <v>571050.0600000001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>652882.91</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>28552502.95</v>
+      </c>
+      <c r="C54" t="n">
+        <v>32644145.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,565 +439,738 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33672295.76</v>
+        <v>365309.07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>485699.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>623561.03</v>
+        <v>819184.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>819190.8199999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365309.07</v>
+        <v>123274.27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128213.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>819184.9</v>
+        <v>178433.93</v>
+      </c>
+      <c r="C5" t="n">
+        <v>178472.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123274.27</v>
+        <v>289342.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>309685.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178433.93</v>
+        <v>123.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>118.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289342.64</v>
+        <v>943595.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>943783.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.92</v>
+        <v>625408.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>660466.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943595.25</v>
+        <v>311282.15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>342697.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>625408.05</v>
+        <v>16532.89</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7610.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>311282.15</v>
+        <v>2450230.98</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2449779.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16532.89</v>
+        <v>39159.76</v>
+      </c>
+      <c r="C13" t="n">
+        <v>39169.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2450230.98</v>
+        <v>8033.56</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8031.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39159.76</v>
+        <v>14883.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14866.78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8033.56</v>
+        <v>628981.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>638329.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14883.9</v>
+        <v>91964.45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>105811.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>628981.3</v>
+        <v>491519.94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>449341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91964.45</v>
+        <v>2902240.16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2882031.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>491519.94</v>
+        <v>17525.18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17517.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2902240.16</v>
+        <v>1537135.72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1537159.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17525.18</v>
+        <v>607563.26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>607893.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1537135.72</v>
+        <v>164274.08</v>
+      </c>
+      <c r="C23" t="n">
+        <v>164346.87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>607563.26</v>
+        <v>6907.31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6907.35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164274.08</v>
+        <v>6248.52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6244.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6907.31</v>
+        <v>845439.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>845910.37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6248.52</v>
+        <v>1169260.18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1158909.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>845439.2</v>
+        <v>318428.81</v>
+      </c>
+      <c r="C28" t="n">
+        <v>318069.43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1169260.18</v>
+        <v>647904.5699999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>612802.3100000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>318428.81</v>
+        <v>638404.61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>603415.98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>647904.5699999999</v>
+        <v>1055118.95</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1047369.39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>638404.61</v>
+        <v>694045.97</v>
+      </c>
+      <c r="C32" t="n">
+        <v>632766.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1055118.95</v>
+        <v>298166.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>298315.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>694045.97</v>
+        <v>3776352.36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3800311.45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>298166.4</v>
+        <v>92432.95</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92453.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3776352.36</v>
+        <v>20703.83</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20696.69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92432.95</v>
+        <v>413382.91</v>
+      </c>
+      <c r="C37" t="n">
+        <v>403666.15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20703.83</v>
+        <v>739484.97</v>
+      </c>
+      <c r="C38" t="n">
+        <v>744958.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>413382.91</v>
+        <v>126595.33</v>
+      </c>
+      <c r="C39" t="n">
+        <v>132610.88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>739484.97</v>
+        <v>18153.67</v>
+      </c>
+      <c r="C40" t="n">
+        <v>18141.81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>126595.33</v>
+        <v>108967.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>120003.84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18153.67</v>
+        <v>126857.86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>126840.84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108967.3</v>
+        <v>113087.21</v>
+      </c>
+      <c r="C43" t="n">
+        <v>113135.83</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>126857.86</v>
+        <v>253467.02</v>
+      </c>
+      <c r="C44" t="n">
+        <v>293560.77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>113087.21</v>
+        <v>371937.45</v>
+      </c>
+      <c r="C45" t="n">
+        <v>371673.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>253467.02</v>
+        <v>166670.66</v>
+      </c>
+      <c r="C46" t="n">
+        <v>176528.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>371937.45</v>
+        <v>362622.93</v>
+      </c>
+      <c r="C47" t="n">
+        <v>362441.46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>166670.66</v>
+        <v>256133.99</v>
+      </c>
+      <c r="C48" t="n">
+        <v>256093.93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>362622.93</v>
+        <v>1247721.79</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1248096.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>256133.99</v>
+        <v>2797333.67</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2797583.94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1247721.79</v>
+        <v>3035007.23</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3138396.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2797333.67</v>
+        <v>791305.73</v>
+      </c>
+      <c r="C52" t="n">
+        <v>792215.97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3035007.23</v>
+        <v>265311.28</v>
+      </c>
+      <c r="C53" t="n">
+        <v>265070.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>791305.73</v>
+        <v>179215.94</v>
+      </c>
+      <c r="C54" t="n">
+        <v>179222.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>265311.28</v>
+        <v>103625.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>103640.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>179215.94</v>
+        <v>623561.03</v>
+      </c>
+      <c r="C56" t="n">
+        <v>627375.33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>103625.8</v>
+        <v>33672295.76</v>
+      </c>
+      <c r="C57" t="n">
+        <v>33878267.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -701,9 +701,7 @@
       <c r="B21" t="n">
         <v>1537135.72</v>
       </c>
-      <c r="C21" t="n">
-        <v>1537159.6</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +712,7 @@
       <c r="B22" t="n">
         <v>607563.26</v>
       </c>
-      <c r="C22" t="n">
-        <v>607893.9</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +723,7 @@
       <c r="B23" t="n">
         <v>164274.08</v>
       </c>
-      <c r="C23" t="n">
-        <v>164346.87</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +734,7 @@
       <c r="B24" t="n">
         <v>6907.31</v>
       </c>
-      <c r="C24" t="n">
-        <v>6907.35</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +745,7 @@
       <c r="B25" t="n">
         <v>6248.52</v>
       </c>
-      <c r="C25" t="n">
-        <v>6244.25</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +756,7 @@
       <c r="B26" t="n">
         <v>845439.2</v>
       </c>
-      <c r="C26" t="n">
-        <v>845910.37</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -779,9 +767,7 @@
       <c r="B27" t="n">
         <v>1169260.18</v>
       </c>
-      <c r="C27" t="n">
-        <v>1158909.71</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -792,9 +778,7 @@
       <c r="B28" t="n">
         <v>318428.81</v>
       </c>
-      <c r="C28" t="n">
-        <v>318069.43</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -805,9 +789,7 @@
       <c r="B29" t="n">
         <v>647904.5699999999</v>
       </c>
-      <c r="C29" t="n">
-        <v>612802.3100000001</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -818,9 +800,7 @@
       <c r="B30" t="n">
         <v>638404.61</v>
       </c>
-      <c r="C30" t="n">
-        <v>603415.98</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -831,9 +811,7 @@
       <c r="B31" t="n">
         <v>1055118.95</v>
       </c>
-      <c r="C31" t="n">
-        <v>1047369.39</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1000,9 +978,7 @@
       <c r="B44" t="n">
         <v>253467.02</v>
       </c>
-      <c r="C44" t="n">
-        <v>293560.77</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1157,7 +1133,7 @@
         <v>623561.03</v>
       </c>
       <c r="C56" t="n">
-        <v>627375.33</v>
+        <v>635135.1899999999</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1146,7 @@
         <v>33672295.76</v>
       </c>
       <c r="C57" t="n">
-        <v>33878267.73</v>
+        <v>26675677.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>365309.07</v>
+      </c>
+      <c r="C2" t="n">
+        <v>485699.02</v>
+      </c>
+      <c r="D2" t="n">
+        <v>565101.89</v>
+      </c>
+      <c r="E2" t="n">
+        <v>594908.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>594853.52</v>
+      </c>
+      <c r="G2" t="n">
+        <v>590759.26</v>
+      </c>
+      <c r="H2" t="n">
+        <v>564436.64</v>
+      </c>
+      <c r="I2" t="n">
+        <v>412652.61</v>
+      </c>
+      <c r="J2" t="n">
+        <v>391732.36</v>
+      </c>
+      <c r="K2" t="n">
+        <v>371321.38</v>
+      </c>
+      <c r="L2" t="n">
+        <v>348225.65</v>
+      </c>
+      <c r="M2" t="n">
         <v>326571.33</v>
-      </c>
-      <c r="C2" t="n">
-        <v>345372.51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>349363.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>345649.83</v>
-      </c>
-      <c r="F2" t="n">
-        <v>377563.55</v>
-      </c>
-      <c r="G2" t="n">
-        <v>384842.74</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>819184.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>819190.8199999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>861227.13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>895516.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>851160.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>850994.1800000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>850767.0699999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>850744.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>861052.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>851655.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>851944.45</v>
+      </c>
+      <c r="M3" t="n">
         <v>891808.46</v>
-      </c>
-      <c r="C3" t="n">
-        <v>892270.67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>901778.84</v>
-      </c>
-      <c r="E3" t="n">
-        <v>892552.3199999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>891964.67</v>
-      </c>
-      <c r="G3" t="n">
-        <v>937219.0600000001</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>123274.27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128213.71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>138249.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>138202.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>148331.37</v>
+      </c>
+      <c r="G4" t="n">
+        <v>148238.08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>148350.96</v>
+      </c>
+      <c r="I4" t="n">
+        <v>148449.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>149868.16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>148435.69</v>
+      </c>
+      <c r="L4" t="n">
+        <v>148429.94</v>
+      </c>
+      <c r="M4" t="n">
         <v>148460.34</v>
-      </c>
-      <c r="C4" t="n">
-        <v>148385.27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>150032.97</v>
-      </c>
-      <c r="E4" t="n">
-        <v>148457.76</v>
-      </c>
-      <c r="F4" t="n">
-        <v>153471.29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>153429.77</v>
       </c>
     </row>
     <row r="5">
@@ -546,23 +630,35 @@
           <t>Adcap Wise</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>278307.57</v>
+      </c>
+      <c r="F5" t="n">
+        <v>292408.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>286332.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>282171.11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>284891.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>289020.82</v>
+      </c>
+      <c r="K5" t="n">
+        <v>310831.72</v>
+      </c>
+      <c r="L5" t="n">
+        <v>330826.5</v>
+      </c>
+      <c r="M5" t="n">
         <v>336191.51</v>
-      </c>
-      <c r="C5" t="n">
-        <v>290090.37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>285581.95</v>
-      </c>
-      <c r="E5" t="n">
-        <v>254749.89</v>
-      </c>
-      <c r="F5" t="n">
-        <v>279291.51</v>
-      </c>
-      <c r="G5" t="n">
-        <v>278582.84</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +668,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>178433.93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>178472.19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>181482.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>183409.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>183496.65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>183432.33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>183481.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>183444.34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>183372.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>185460.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>185490.68</v>
+      </c>
+      <c r="M6" t="n">
         <v>185469.78</v>
-      </c>
-      <c r="C6" t="n">
-        <v>185394.53</v>
-      </c>
-      <c r="D6" t="n">
-        <v>187543.46</v>
-      </c>
-      <c r="E6" t="n">
-        <v>185474.04</v>
-      </c>
-      <c r="F6" t="n">
-        <v>214271.01</v>
-      </c>
-      <c r="G6" t="n">
-        <v>229190.13</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +711,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>289342.64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>309685.18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>325739.35</v>
+      </c>
+      <c r="E7" t="n">
+        <v>326157.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>326083.09</v>
+      </c>
+      <c r="G7" t="n">
+        <v>325917.54</v>
+      </c>
+      <c r="H7" t="n">
+        <v>326136.85</v>
+      </c>
+      <c r="I7" t="n">
+        <v>326012.84</v>
+      </c>
+      <c r="J7" t="n">
+        <v>326155.28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>325770.32</v>
+      </c>
+      <c r="L7" t="n">
+        <v>259968.35</v>
+      </c>
+      <c r="M7" t="n">
         <v>259991.28</v>
-      </c>
-      <c r="C7" t="n">
-        <v>260022.97</v>
-      </c>
-      <c r="D7" t="n">
-        <v>262880.63</v>
-      </c>
-      <c r="E7" t="n">
-        <v>260315.17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>260256.15</v>
-      </c>
-      <c r="G7" t="n">
-        <v>337293.84</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +754,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>123.92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115.43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>117.67</v>
+      </c>
+      <c r="F8" t="n">
+        <v>115.14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>116.17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>116.13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>114.04</v>
+      </c>
+      <c r="J8" t="n">
+        <v>112.84</v>
+      </c>
+      <c r="K8" t="n">
+        <v>106.81</v>
+      </c>
+      <c r="L8" t="n">
+        <v>107.28</v>
+      </c>
+      <c r="M8" t="n">
         <v>106.59</v>
-      </c>
-      <c r="C8" t="n">
-        <v>105.69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>105.02</v>
-      </c>
-      <c r="E8" t="n">
-        <v>105.43</v>
-      </c>
-      <c r="F8" t="n">
-        <v>92.56999999999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>93.16</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +797,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>943595.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>943783.88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>943141.51</v>
+      </c>
+      <c r="E9" t="n">
+        <v>943356.6899999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>943795.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>943457.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>943368.14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>943606.22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>911869.8100000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>872623.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>871838.8</v>
+      </c>
+      <c r="M9" t="n">
         <v>807649.05</v>
-      </c>
-      <c r="C9" t="n">
-        <v>807306.49</v>
-      </c>
-      <c r="D9" t="n">
-        <v>816261.3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>801071.5699999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>801349.92</v>
-      </c>
-      <c r="G9" t="n">
-        <v>801006.89</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +840,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>625408.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>660466.28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>660430.85</v>
+      </c>
+      <c r="E10" t="n">
+        <v>660570.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>660499.48</v>
+      </c>
+      <c r="G10" t="n">
+        <v>660626.79</v>
+      </c>
+      <c r="H10" t="n">
+        <v>660474.14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>660607.4300000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>660581.54</v>
+      </c>
+      <c r="K10" t="n">
+        <v>660511.6899999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>660546.01</v>
+      </c>
+      <c r="M10" t="n">
         <v>660488.37</v>
-      </c>
-      <c r="C10" t="n">
-        <v>660639.84</v>
-      </c>
-      <c r="D10" t="n">
-        <v>668123.89</v>
-      </c>
-      <c r="E10" t="n">
-        <v>660376.75</v>
-      </c>
-      <c r="F10" t="n">
-        <v>660619.02</v>
-      </c>
-      <c r="G10" t="n">
-        <v>710663.58</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +883,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>311282.15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>342697.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>394551.38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>394540.44</v>
+      </c>
+      <c r="F11" t="n">
+        <v>394632.68</v>
+      </c>
+      <c r="G11" t="n">
+        <v>430891.17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>430739.11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>430844.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>430768.61</v>
+      </c>
+      <c r="K11" t="n">
+        <v>430703.45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>430829.54</v>
+      </c>
+      <c r="M11" t="n">
         <v>358659.32</v>
-      </c>
-      <c r="C11" t="n">
-        <v>358611.02</v>
-      </c>
-      <c r="D11" t="n">
-        <v>362501.05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>358517.86</v>
-      </c>
-      <c r="F11" t="n">
-        <v>358446.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>358568.46</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +926,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>16532.89</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7610.35</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7609.19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7643.86</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7623.54</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7614.69</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7618.01</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7595.12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7615.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7619.28</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7638.54</v>
+      </c>
+      <c r="M12" t="n">
         <v>7600.44</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7596.77</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7714.03</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7613.88</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7604.41</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7627.25</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +969,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>2450230.98</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2449779.31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2448999.77</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2448826.62</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2449754.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2449114.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2449734.42</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2449456.68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2450864.09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2448109.23</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2448611.77</v>
+      </c>
+      <c r="M13" t="n">
         <v>2450887.05</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2450012.25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2476744.78</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2448759.65</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2459190.49</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2457425.41</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1012,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>39159.76</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39169.13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39163.55</v>
+      </c>
+      <c r="E14" t="n">
+        <v>39184.03</v>
+      </c>
+      <c r="F14" t="n">
+        <v>39103.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>39100.78</v>
+      </c>
+      <c r="H14" t="n">
+        <v>39091.37</v>
+      </c>
+      <c r="I14" t="n">
+        <v>39116.01</v>
+      </c>
+      <c r="J14" t="n">
+        <v>39067.59</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4667.03</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4670.08</v>
+      </c>
+      <c r="M14" t="n">
         <v>4667.55</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4670.3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4719.36</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4668.03</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4670.29</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4670.59</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1055,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>8033.56</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8031.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8031.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8028.06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8027.71</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8029.42</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8028.53</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8031.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8030.13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8033.42</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8028.8</v>
+      </c>
+      <c r="M15" t="n">
         <v>8032.98</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8030.04</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8120.32</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8029.22</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8031.06</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8034.05</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1098,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>14883.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14866.78</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14892.57</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14885.81</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14881.79</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14877.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14870.92</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14863.62</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14890.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14865.84</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14866.39</v>
+      </c>
+      <c r="M16" t="n">
         <v>14868.43</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14870.75</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15050.85</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14877.37</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14883.43</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14866.57</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1141,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>628981.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>638329.25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>628556.1800000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>628700.3199999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>649253.6899999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>643703.83</v>
+      </c>
+      <c r="H17" t="n">
+        <v>643550.45</v>
+      </c>
+      <c r="I17" t="n">
+        <v>643415.09</v>
+      </c>
+      <c r="J17" t="n">
+        <v>643100.42</v>
+      </c>
+      <c r="K17" t="n">
+        <v>637138.97</v>
+      </c>
+      <c r="L17" t="n">
+        <v>613530.96</v>
+      </c>
+      <c r="M17" t="n">
         <v>613580.42</v>
-      </c>
-      <c r="C17" t="n">
-        <v>662913.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>663476.13</v>
-      </c>
-      <c r="E17" t="n">
-        <v>677014.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>686644.01</v>
-      </c>
-      <c r="G17" t="n">
-        <v>693053.87</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1184,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>91964.45</v>
+      </c>
+      <c r="C18" t="n">
+        <v>105811.67</v>
+      </c>
+      <c r="D18" t="n">
+        <v>109707.93</v>
+      </c>
+      <c r="E18" t="n">
+        <v>126410.53</v>
+      </c>
+      <c r="F18" t="n">
+        <v>142644.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>142647.01</v>
+      </c>
+      <c r="H18" t="n">
+        <v>153253.26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>153277.96</v>
+      </c>
+      <c r="J18" t="n">
+        <v>153308.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>153257.84</v>
+      </c>
+      <c r="L18" t="n">
+        <v>146470.24</v>
+      </c>
+      <c r="M18" t="n">
         <v>146357.27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>146405.24</v>
-      </c>
-      <c r="D18" t="n">
-        <v>148057.98</v>
-      </c>
-      <c r="E18" t="n">
-        <v>146402.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>146438.97</v>
-      </c>
-      <c r="G18" t="n">
-        <v>146476.23</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1227,40 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>491519.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>449341</v>
+      </c>
+      <c r="D19" t="n">
+        <v>430757.43</v>
+      </c>
+      <c r="E19" t="n">
+        <v>430957.13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>441932.59</v>
+      </c>
+      <c r="G19" t="n">
+        <v>435735.88</v>
+      </c>
+      <c r="H19" t="n">
+        <v>435920.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>435829.94</v>
+      </c>
+      <c r="J19" t="n">
+        <v>435692.77</v>
+      </c>
+      <c r="K19" t="n">
+        <v>435856.21</v>
+      </c>
+      <c r="L19" t="n">
+        <v>435694.56</v>
+      </c>
+      <c r="M19" t="n">
         <v>435678.57</v>
-      </c>
-      <c r="C19" t="n">
-        <v>435855.34</v>
-      </c>
-      <c r="D19" t="n">
-        <v>440680.48</v>
-      </c>
-      <c r="E19" t="n">
-        <v>435924.43</v>
-      </c>
-      <c r="F19" t="n">
-        <v>435814.17</v>
-      </c>
-      <c r="G19" t="n">
-        <v>466761.64</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1270,40 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>2902240.16</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2882031.52</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2868725.96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2842747.63</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2830869.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2804654.31</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2786874.85</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2757036.32</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2716074.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2699716.28</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2692524.46</v>
+      </c>
+      <c r="M20" t="n">
         <v>2665148.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2651809.81</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2662453.34</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2618416.72</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2605591.41</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2592904.83</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1313,40 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>17525.18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17517.08</v>
+      </c>
+      <c r="D21" t="n">
+        <v>17522.36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17519.84</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17517.82</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17516.39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>17524.76</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17515.07</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17525.07</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17525.36</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17522.46</v>
+      </c>
+      <c r="M21" t="n">
         <v>17518.19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>17525.56</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17719.74</v>
-      </c>
-      <c r="E21" t="n">
-        <v>17523.96</v>
-      </c>
-      <c r="F21" t="n">
-        <v>17514.51</v>
-      </c>
-      <c r="G21" t="n">
-        <v>17520.01</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1356,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>1537135.72</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1536490.53</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1536329.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1536828.43</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1512636.72</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1492528.47</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1492214.14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1472918.01</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1472761.37</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1472620.17</v>
+      </c>
+      <c r="M22" t="n">
         <v>1472864.02</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1472818.84</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1488816</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1472873.11</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1472024.15</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1440944.01</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1397,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>607563.26</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>607680.1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>607953.55</v>
+      </c>
+      <c r="F23" t="n">
+        <v>607923.11</v>
+      </c>
+      <c r="G23" t="n">
+        <v>607632.45</v>
+      </c>
+      <c r="H23" t="n">
+        <v>627584.9300000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>627626.8100000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>627532.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>627578.52</v>
+      </c>
+      <c r="L23" t="n">
+        <v>627767.3199999999</v>
+      </c>
+      <c r="M23" t="n">
         <v>627872.03</v>
-      </c>
-      <c r="C23" t="n">
-        <v>627633.85</v>
-      </c>
-      <c r="D23" t="n">
-        <v>634460.99</v>
-      </c>
-      <c r="E23" t="n">
-        <v>627815.45</v>
-      </c>
-      <c r="F23" t="n">
-        <v>627588.85</v>
-      </c>
-      <c r="G23" t="n">
-        <v>659273.76</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1438,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>164274.08</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>151548.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>151671.39</v>
+      </c>
+      <c r="F24" t="n">
+        <v>151645.11</v>
+      </c>
+      <c r="G24" t="n">
+        <v>151696.34</v>
+      </c>
+      <c r="H24" t="n">
+        <v>151538.17</v>
+      </c>
+      <c r="I24" t="n">
+        <v>151604.57</v>
+      </c>
+      <c r="J24" t="n">
+        <v>151672.39</v>
+      </c>
+      <c r="K24" t="n">
+        <v>151534.92</v>
+      </c>
+      <c r="L24" t="n">
+        <v>151676.37</v>
+      </c>
+      <c r="M24" t="n">
         <v>151694.65</v>
-      </c>
-      <c r="C24" t="n">
-        <v>151530.16</v>
-      </c>
-      <c r="D24" t="n">
-        <v>153216.87</v>
-      </c>
-      <c r="E24" t="n">
-        <v>151594.83</v>
-      </c>
-      <c r="F24" t="n">
-        <v>151513.29</v>
-      </c>
-      <c r="G24" t="n">
-        <v>151669.74</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1479,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>6907.31</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>6904</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6906.21</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6908.47</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6903.17</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6903.92</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6906.81</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6908.38</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6911.21</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6909.77</v>
+      </c>
+      <c r="M25" t="n">
         <v>6907.2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6903.23</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6981.37</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6907.49</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6904.36</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6908.66</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1520,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>6248.52</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>6255.08</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6258.19</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6246.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6258.23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6247.49</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6248.76</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6258.77</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6250.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6244.11</v>
+      </c>
+      <c r="M26" t="n">
         <v>6244.09</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6250.62</v>
-      </c>
-      <c r="D26" t="n">
-        <v>6321.13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6245.12</v>
-      </c>
-      <c r="F26" t="n">
-        <v>6248.6</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6251.57</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1561,38 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>845439.2</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>800937.97</v>
+      </c>
+      <c r="E27" t="n">
+        <v>771847.49</v>
+      </c>
+      <c r="F27" t="n">
+        <v>737210.35</v>
+      </c>
+      <c r="G27" t="n">
+        <v>705944.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>705888.6899999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>705435.47</v>
+      </c>
+      <c r="J27" t="n">
+        <v>705546.4399999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>705471.24</v>
+      </c>
+      <c r="L27" t="n">
+        <v>682699.79</v>
+      </c>
+      <c r="M27" t="n">
         <v>682475.49</v>
-      </c>
-      <c r="C27" t="n">
-        <v>682480.24</v>
-      </c>
-      <c r="D27" t="n">
-        <v>690462.35</v>
-      </c>
-      <c r="E27" t="n">
-        <v>682740.3199999999</v>
-      </c>
-      <c r="F27" t="n">
-        <v>682774.08</v>
-      </c>
-      <c r="G27" t="n">
-        <v>682877.0699999999</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1602,38 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>1169260.18</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1100227.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1070691.16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1054364.74</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1013384.76</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1013891.46</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1013598.47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1013057.85</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1013624.09</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1013829.72</v>
+      </c>
+      <c r="M28" t="n">
         <v>1013276.58</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1013338.77</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1024672.22</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1013718.81</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1013338.27</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1075231.88</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1643,38 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>318428.81</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>318659.21</v>
+      </c>
+      <c r="E29" t="n">
+        <v>318491.09</v>
+      </c>
+      <c r="F29" t="n">
+        <v>318051.45</v>
+      </c>
+      <c r="G29" t="n">
+        <v>286385.33</v>
+      </c>
+      <c r="H29" t="n">
+        <v>287250.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>287027.31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>287388.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>286729.99</v>
+      </c>
+      <c r="L29" t="n">
+        <v>286712.95</v>
+      </c>
+      <c r="M29" t="n">
         <v>287429.64</v>
-      </c>
-      <c r="C29" t="n">
-        <v>286939.32</v>
-      </c>
-      <c r="D29" t="n">
-        <v>289849.61</v>
-      </c>
-      <c r="E29" t="n">
-        <v>203898.39</v>
-      </c>
-      <c r="F29" t="n">
-        <v>203752.93</v>
-      </c>
-      <c r="G29" t="n">
-        <v>204080.72</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1684,38 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>647904.5699999999</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>624494.92</v>
+      </c>
+      <c r="E30" t="n">
+        <v>688761.61</v>
+      </c>
+      <c r="F30" t="n">
+        <v>709433.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>698466.09</v>
+      </c>
+      <c r="H30" t="n">
+        <v>711173.26</v>
+      </c>
+      <c r="I30" t="n">
+        <v>686847.39</v>
+      </c>
+      <c r="J30" t="n">
+        <v>679468.98</v>
+      </c>
+      <c r="K30" t="n">
+        <v>659864.39</v>
+      </c>
+      <c r="L30" t="n">
+        <v>651959.03</v>
+      </c>
+      <c r="M30" t="n">
         <v>652194.34</v>
-      </c>
-      <c r="C30" t="n">
-        <v>653555.89</v>
-      </c>
-      <c r="D30" t="n">
-        <v>670194.1899999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>662697.88</v>
-      </c>
-      <c r="F30" t="n">
-        <v>689405.5699999999</v>
-      </c>
-      <c r="G30" t="n">
-        <v>708059.8</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1725,38 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>638404.61</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>640094.26</v>
+      </c>
+      <c r="E31" t="n">
+        <v>653450.13</v>
+      </c>
+      <c r="F31" t="n">
+        <v>654065.45</v>
+      </c>
+      <c r="G31" t="n">
+        <v>643465.76</v>
+      </c>
+      <c r="H31" t="n">
+        <v>649685.87</v>
+      </c>
+      <c r="I31" t="n">
+        <v>649741.05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>634694.8100000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>634165.6800000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>613174.39</v>
+      </c>
+      <c r="M31" t="n">
         <v>613243.8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>613510.23</v>
-      </c>
-      <c r="D31" t="n">
-        <v>619920.15</v>
-      </c>
-      <c r="E31" t="n">
-        <v>616482.11</v>
-      </c>
-      <c r="F31" t="n">
-        <v>648715.51</v>
-      </c>
-      <c r="G31" t="n">
-        <v>661734.8199999999</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1766,38 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>1055118.95</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>934449.47</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1058919.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1053108.31</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1067700.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1068100.63</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1057203.84</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1031539.19</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1031153.87</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1008188.12</v>
+      </c>
+      <c r="M32" t="n">
         <v>983822.7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>984048.83</v>
-      </c>
-      <c r="D32" t="n">
-        <v>994296.96</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1086688.1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1157830.82</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1201052.11</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1807,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>694045.97</v>
+      </c>
+      <c r="C33" t="n">
+        <v>632766.52</v>
+      </c>
+      <c r="D33" t="n">
+        <v>653262.5699999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>695933.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>700993.46</v>
+      </c>
+      <c r="G33" t="n">
+        <v>711091.0699999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>711196.79</v>
+      </c>
+      <c r="I33" t="n">
+        <v>710690.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>711297.55</v>
+      </c>
+      <c r="K33" t="n">
+        <v>711194.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>710675.75</v>
+      </c>
+      <c r="M33" t="n">
         <v>714232.8199999999</v>
-      </c>
-      <c r="C33" t="n">
-        <v>704315.55</v>
-      </c>
-      <c r="D33" t="n">
-        <v>709699.46</v>
-      </c>
-      <c r="E33" t="n">
-        <v>666904.9300000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>676908.3100000001</v>
-      </c>
-      <c r="G33" t="n">
-        <v>668700.42</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1850,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>298166.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>298315.05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>248123.12</v>
+      </c>
+      <c r="E34" t="n">
+        <v>248099.63</v>
+      </c>
+      <c r="F34" t="n">
+        <v>248223.46</v>
+      </c>
+      <c r="G34" t="n">
+        <v>248122.17</v>
+      </c>
+      <c r="H34" t="n">
+        <v>347792.69</v>
+      </c>
+      <c r="I34" t="n">
+        <v>347867.91</v>
+      </c>
+      <c r="J34" t="n">
+        <v>347807.59</v>
+      </c>
+      <c r="K34" t="n">
+        <v>347873.96</v>
+      </c>
+      <c r="L34" t="n">
+        <v>347813.35</v>
+      </c>
+      <c r="M34" t="n">
         <v>347828.43</v>
-      </c>
-      <c r="C34" t="n">
-        <v>347910.45</v>
-      </c>
-      <c r="D34" t="n">
-        <v>351752.26</v>
-      </c>
-      <c r="E34" t="n">
-        <v>347888.28</v>
-      </c>
-      <c r="F34" t="n">
-        <v>347852.78</v>
-      </c>
-      <c r="G34" t="n">
-        <v>347752.73</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1893,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>3776352.36</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3800311.45</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3801459.71</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3799245.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3799225.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3799362.07</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3800336.57</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3800094.04</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3798763.38</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3800435.33</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3800854.78</v>
+      </c>
+      <c r="M35" t="n">
         <v>3800940.53</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3798887.98</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3843328.11</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3799321.28</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3599526.43</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3600655.82</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1936,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>92432.95</v>
+      </c>
+      <c r="C36" t="n">
+        <v>92453.92</v>
+      </c>
+      <c r="D36" t="n">
+        <v>85416.59</v>
+      </c>
+      <c r="E36" t="n">
+        <v>85492.61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>85435.97</v>
+      </c>
+      <c r="G36" t="n">
+        <v>85417.35000000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>85492.27</v>
+      </c>
+      <c r="I36" t="n">
+        <v>85463.21000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>85487.35000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>85466.05</v>
+      </c>
+      <c r="L36" t="n">
+        <v>85448.3</v>
+      </c>
+      <c r="M36" t="n">
         <v>85409.82000000001</v>
-      </c>
-      <c r="C36" t="n">
-        <v>85491.99000000001</v>
-      </c>
-      <c r="D36" t="n">
-        <v>86385.2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>85422.71000000001</v>
-      </c>
-      <c r="F36" t="n">
-        <v>85495.96000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>85410.46000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1979,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>20703.83</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20696.69</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20698.73</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20710.66</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20707.07</v>
+      </c>
+      <c r="G37" t="n">
+        <v>20692.36</v>
+      </c>
+      <c r="H37" t="n">
+        <v>20701.82</v>
+      </c>
+      <c r="I37" t="n">
+        <v>20703.95</v>
+      </c>
+      <c r="J37" t="n">
+        <v>20686.17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20690.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>20686.63</v>
+      </c>
+      <c r="M37" t="n">
         <v>20709.15</v>
-      </c>
-      <c r="C37" t="n">
-        <v>20712.26</v>
-      </c>
-      <c r="D37" t="n">
-        <v>20922.66</v>
-      </c>
-      <c r="E37" t="n">
-        <v>20702.62</v>
-      </c>
-      <c r="F37" t="n">
-        <v>20708.94</v>
-      </c>
-      <c r="G37" t="n">
-        <v>20712.52</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2022,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>413382.91</v>
+      </c>
+      <c r="C38" t="n">
+        <v>403666.15</v>
+      </c>
+      <c r="D38" t="n">
+        <v>395690.89</v>
+      </c>
+      <c r="E38" t="n">
+        <v>405514.97</v>
+      </c>
+      <c r="F38" t="n">
+        <v>395710.36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>380463.68</v>
+      </c>
+      <c r="H38" t="n">
+        <v>390619.31</v>
+      </c>
+      <c r="I38" t="n">
+        <v>342489.03</v>
+      </c>
+      <c r="J38" t="n">
+        <v>332454.82</v>
+      </c>
+      <c r="K38" t="n">
+        <v>322552.69</v>
+      </c>
+      <c r="L38" t="n">
+        <v>302491.15</v>
+      </c>
+      <c r="M38" t="n">
         <v>302551.86</v>
-      </c>
-      <c r="C38" t="n">
-        <v>292448.2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>295713.79</v>
-      </c>
-      <c r="E38" t="n">
-        <v>297640.16</v>
-      </c>
-      <c r="F38" t="n">
-        <v>297584.06</v>
-      </c>
-      <c r="G38" t="n">
-        <v>277572.96</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2065,40 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>739484.97</v>
+      </c>
+      <c r="C39" t="n">
+        <v>744958.36</v>
+      </c>
+      <c r="D39" t="n">
+        <v>633216.15</v>
+      </c>
+      <c r="E39" t="n">
+        <v>613317</v>
+      </c>
+      <c r="F39" t="n">
+        <v>613237.85</v>
+      </c>
+      <c r="G39" t="n">
+        <v>613092.86</v>
+      </c>
+      <c r="H39" t="n">
+        <v>618233.86</v>
+      </c>
+      <c r="I39" t="n">
+        <v>603348.1899999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>577933.14</v>
+      </c>
+      <c r="K39" t="n">
+        <v>567828.09</v>
+      </c>
+      <c r="L39" t="n">
+        <v>537678.86</v>
+      </c>
+      <c r="M39" t="n">
         <v>532572.6800000001</v>
-      </c>
-      <c r="C39" t="n">
-        <v>512529.26</v>
-      </c>
-      <c r="D39" t="n">
-        <v>518688.19</v>
-      </c>
-      <c r="E39" t="n">
-        <v>512936.64</v>
-      </c>
-      <c r="F39" t="n">
-        <v>517867.26</v>
-      </c>
-      <c r="G39" t="n">
-        <v>547745.63</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2108,40 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>126595.33</v>
+      </c>
+      <c r="C40" t="n">
+        <v>132610.88</v>
+      </c>
+      <c r="D40" t="n">
+        <v>170175.16</v>
+      </c>
+      <c r="E40" t="n">
+        <v>178274.21</v>
+      </c>
+      <c r="F40" t="n">
+        <v>176520.74</v>
+      </c>
+      <c r="G40" t="n">
+        <v>176586.95</v>
+      </c>
+      <c r="H40" t="n">
+        <v>209802.13</v>
+      </c>
+      <c r="I40" t="n">
+        <v>209779.86</v>
+      </c>
+      <c r="J40" t="n">
+        <v>209783.39</v>
+      </c>
+      <c r="K40" t="n">
+        <v>209753.29</v>
+      </c>
+      <c r="L40" t="n">
+        <v>208215.4</v>
+      </c>
+      <c r="M40" t="n">
         <v>183533.31</v>
-      </c>
-      <c r="C40" t="n">
-        <v>183586.77</v>
-      </c>
-      <c r="D40" t="n">
-        <v>180370.76</v>
-      </c>
-      <c r="E40" t="n">
-        <v>176556.97</v>
-      </c>
-      <c r="F40" t="n">
-        <v>179776.15</v>
-      </c>
-      <c r="G40" t="n">
-        <v>190742.98</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2151,40 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>18153.67</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18141.81</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20521.79</v>
+      </c>
+      <c r="E41" t="n">
+        <v>20512.9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20518.15</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20518.36</v>
+      </c>
+      <c r="H41" t="n">
+        <v>20522.96</v>
+      </c>
+      <c r="I41" t="n">
+        <v>20511.58</v>
+      </c>
+      <c r="J41" t="n">
+        <v>20524.04</v>
+      </c>
+      <c r="K41" t="n">
+        <v>20523.77</v>
+      </c>
+      <c r="L41" t="n">
+        <v>20526.5</v>
+      </c>
+      <c r="M41" t="n">
         <v>20519.43</v>
-      </c>
-      <c r="C41" t="n">
-        <v>19330.36</v>
-      </c>
-      <c r="D41" t="n">
-        <v>19543.79</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19326.21</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19318.41</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19321.78</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2194,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>108967.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>120003.84</v>
+      </c>
+      <c r="D42" t="n">
+        <v>132066.57</v>
+      </c>
+      <c r="E42" t="n">
+        <v>144005.33</v>
+      </c>
+      <c r="F42" t="n">
+        <v>144040.14</v>
+      </c>
+      <c r="G42" t="n">
+        <v>143980.31</v>
+      </c>
+      <c r="H42" t="n">
+        <v>143985.93</v>
+      </c>
+      <c r="I42" t="n">
+        <v>148050.46</v>
+      </c>
+      <c r="J42" t="n">
+        <v>149932.79</v>
+      </c>
+      <c r="K42" t="n">
+        <v>141494.52</v>
+      </c>
+      <c r="L42" t="n">
+        <v>137849.05</v>
+      </c>
+      <c r="M42" t="n">
         <v>138066.45</v>
-      </c>
-      <c r="C42" t="n">
-        <v>136025.68</v>
-      </c>
-      <c r="D42" t="n">
-        <v>137517.87</v>
-      </c>
-      <c r="E42" t="n">
-        <v>135981.92</v>
-      </c>
-      <c r="F42" t="n">
-        <v>136035.93</v>
-      </c>
-      <c r="G42" t="n">
-        <v>143935.55</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2237,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>126857.86</v>
+      </c>
+      <c r="C43" t="n">
+        <v>126840.84</v>
+      </c>
+      <c r="D43" t="n">
+        <v>126896.24</v>
+      </c>
+      <c r="E43" t="n">
+        <v>155908.99</v>
+      </c>
+      <c r="F43" t="n">
+        <v>155938.35</v>
+      </c>
+      <c r="G43" t="n">
+        <v>155829.78</v>
+      </c>
+      <c r="H43" t="n">
+        <v>155880.71</v>
+      </c>
+      <c r="I43" t="n">
+        <v>155921.44</v>
+      </c>
+      <c r="J43" t="n">
+        <v>155832.87</v>
+      </c>
+      <c r="K43" t="n">
+        <v>155938.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>155865.64</v>
+      </c>
+      <c r="M43" t="n">
         <v>155934.97</v>
-      </c>
-      <c r="C43" t="n">
-        <v>155833.95</v>
-      </c>
-      <c r="D43" t="n">
-        <v>157590.24</v>
-      </c>
-      <c r="E43" t="n">
-        <v>155928.81</v>
-      </c>
-      <c r="F43" t="n">
-        <v>155889.07</v>
-      </c>
-      <c r="G43" t="n">
-        <v>155932.87</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +2280,40 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>113087.21</v>
+      </c>
+      <c r="C44" t="n">
+        <v>113135.83</v>
+      </c>
+      <c r="D44" t="n">
+        <v>82595.17999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100454.48</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100489.43</v>
+      </c>
+      <c r="G44" t="n">
+        <v>116241.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>116280.66</v>
+      </c>
+      <c r="I44" t="n">
+        <v>116331.59</v>
+      </c>
+      <c r="J44" t="n">
+        <v>116312.15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>116340.98</v>
+      </c>
+      <c r="L44" t="n">
+        <v>116340.34</v>
+      </c>
+      <c r="M44" t="n">
         <v>116260.67</v>
-      </c>
-      <c r="C44" t="n">
-        <v>116293.5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>117609</v>
-      </c>
-      <c r="E44" t="n">
-        <v>120864.38</v>
-      </c>
-      <c r="F44" t="n">
-        <v>120858.42</v>
-      </c>
-      <c r="G44" t="n">
-        <v>120857.5</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +2323,38 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>253467.02</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>293643.39</v>
+      </c>
+      <c r="E45" t="n">
+        <v>293509.87</v>
+      </c>
+      <c r="F45" t="n">
+        <v>293482.67</v>
+      </c>
+      <c r="G45" t="n">
+        <v>293349.22</v>
+      </c>
+      <c r="H45" t="n">
+        <v>295457.68</v>
+      </c>
+      <c r="I45" t="n">
+        <v>295636.62</v>
+      </c>
+      <c r="J45" t="n">
+        <v>295618.98</v>
+      </c>
+      <c r="K45" t="n">
+        <v>295434.8</v>
+      </c>
+      <c r="L45" t="n">
+        <v>295460.66</v>
+      </c>
+      <c r="M45" t="n">
         <v>284417.62</v>
-      </c>
-      <c r="C45" t="n">
-        <v>284377.15</v>
-      </c>
-      <c r="D45" t="n">
-        <v>287793.41</v>
-      </c>
-      <c r="E45" t="n">
-        <v>284429.52</v>
-      </c>
-      <c r="F45" t="n">
-        <v>284505.16</v>
-      </c>
-      <c r="G45" t="n">
-        <v>284493.56</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +2364,40 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>371937.45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>371673.13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>372096.38</v>
+      </c>
+      <c r="E46" t="n">
+        <v>512417.21</v>
+      </c>
+      <c r="F46" t="n">
+        <v>512274.03</v>
+      </c>
+      <c r="G46" t="n">
+        <v>512442.21</v>
+      </c>
+      <c r="H46" t="n">
+        <v>512694.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>512617.63</v>
+      </c>
+      <c r="J46" t="n">
+        <v>512729.59</v>
+      </c>
+      <c r="K46" t="n">
+        <v>512588.08</v>
+      </c>
+      <c r="L46" t="n">
+        <v>512467.23</v>
+      </c>
+      <c r="M46" t="n">
         <v>512311.78</v>
-      </c>
-      <c r="C46" t="n">
-        <v>512442.21</v>
-      </c>
-      <c r="D46" t="n">
-        <v>518125.12</v>
-      </c>
-      <c r="E46" t="n">
-        <v>512413.01</v>
-      </c>
-      <c r="F46" t="n">
-        <v>593406.58</v>
-      </c>
-      <c r="G46" t="n">
-        <v>593414.35</v>
       </c>
     </row>
     <row r="47">
@@ -1597,22 +2407,40 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>166670.66</v>
+      </c>
+      <c r="C47" t="n">
+        <v>176528.12</v>
+      </c>
+      <c r="D47" t="n">
+        <v>196561.62</v>
+      </c>
+      <c r="E47" t="n">
+        <v>200673.09</v>
+      </c>
+      <c r="F47" t="n">
+        <v>200578.67</v>
+      </c>
+      <c r="G47" t="n">
+        <v>200608.33</v>
+      </c>
+      <c r="H47" t="n">
+        <v>212651.24</v>
+      </c>
+      <c r="I47" t="n">
+        <v>202657.67</v>
+      </c>
+      <c r="J47" t="n">
+        <v>217621.51</v>
+      </c>
+      <c r="K47" t="n">
+        <v>195547.02</v>
+      </c>
+      <c r="L47" t="n">
+        <v>209605.38</v>
+      </c>
+      <c r="M47" t="n">
         <v>203601.97</v>
-      </c>
-      <c r="C47" t="n">
-        <v>220521.43</v>
-      </c>
-      <c r="D47" t="n">
-        <v>223044.75</v>
-      </c>
-      <c r="E47" t="n">
-        <v>220557.09</v>
-      </c>
-      <c r="F47" t="n">
-        <v>220551.93</v>
-      </c>
-      <c r="G47" t="n">
-        <v>247546.31</v>
       </c>
     </row>
     <row r="48">
@@ -1622,22 +2450,40 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>362622.93</v>
+      </c>
+      <c r="C48" t="n">
+        <v>362441.46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>362602.98</v>
+      </c>
+      <c r="E48" t="n">
+        <v>362668.44</v>
+      </c>
+      <c r="F48" t="n">
+        <v>377181.59</v>
+      </c>
+      <c r="G48" t="n">
+        <v>377194.38</v>
+      </c>
+      <c r="H48" t="n">
+        <v>377168.57</v>
+      </c>
+      <c r="I48" t="n">
+        <v>377027.16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>377007.84</v>
+      </c>
+      <c r="K48" t="n">
+        <v>376958.48</v>
+      </c>
+      <c r="L48" t="n">
+        <v>377234.93</v>
+      </c>
+      <c r="M48" t="n">
         <v>377205.33</v>
-      </c>
-      <c r="C48" t="n">
-        <v>376937.21</v>
-      </c>
-      <c r="D48" t="n">
-        <v>381207.21</v>
-      </c>
-      <c r="E48" t="n">
-        <v>409680.99</v>
-      </c>
-      <c r="F48" t="n">
-        <v>409745.45</v>
-      </c>
-      <c r="G48" t="n">
-        <v>445850.25</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +2493,40 @@
         </is>
       </c>
       <c r="B49" t="n">
+        <v>256133.99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>256093.93</v>
+      </c>
+      <c r="D49" t="n">
+        <v>241154.27</v>
+      </c>
+      <c r="E49" t="n">
+        <v>236887.14</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255547</v>
+      </c>
+      <c r="G49" t="n">
+        <v>258376.06</v>
+      </c>
+      <c r="H49" t="n">
+        <v>259117.3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>258994.23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>258992.22</v>
+      </c>
+      <c r="K49" t="n">
+        <v>259064.57</v>
+      </c>
+      <c r="L49" t="n">
+        <v>259191.24</v>
+      </c>
+      <c r="M49" t="n">
         <v>251728.53</v>
-      </c>
-      <c r="C49" t="n">
-        <v>238327.94</v>
-      </c>
-      <c r="D49" t="n">
-        <v>241131.61</v>
-      </c>
-      <c r="E49" t="n">
-        <v>241020.94</v>
-      </c>
-      <c r="F49" t="n">
-        <v>238236.74</v>
-      </c>
-      <c r="G49" t="n">
-        <v>259091.08</v>
       </c>
     </row>
     <row r="50">
@@ -1672,22 +2536,40 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>1247721.79</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1248096.14</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1269076.97</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1338276.35</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1338720.33</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1338547.29</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1338482.54</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1338322.12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1338871.55</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1338273.37</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1280358.26</v>
+      </c>
+      <c r="M50" t="n">
         <v>1280109.48</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1280259.99</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1294980.55</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1280599.94</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1324683.36</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1340374.56</v>
       </c>
     </row>
     <row r="51">
@@ -1697,147 +2579,305 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>2797333.67</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2797583.94</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2797186.83</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2797304.32</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2796995.25</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2777717.94</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2788795.91</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2764255.63</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2646589.03</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2646042.56</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2646418.55</v>
+      </c>
+      <c r="M51" t="n">
         <v>2646556.15</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2646584.08</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2566628.22</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2538402.82</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2538850.33</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2538049.83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1380959.81</v>
+        <v>3035007.23</v>
       </c>
       <c r="C52" t="n">
-        <v>1381515.84</v>
+        <v>3138396.02</v>
       </c>
       <c r="D52" t="n">
-        <v>1396677.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1381469.98</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1462827.54</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1462797.6</v>
-      </c>
+        <v>3295528.57</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>264862.4</v>
+        <v>791305.73</v>
       </c>
       <c r="C53" t="n">
-        <v>265008.37</v>
+        <v>792215.97</v>
       </c>
       <c r="D53" t="n">
-        <v>267734.85</v>
+        <v>791909</v>
       </c>
       <c r="E53" t="n">
-        <v>265037.12</v>
+        <v>968064.26</v>
       </c>
       <c r="F53" t="n">
-        <v>264780.94</v>
+        <v>1111976.21</v>
       </c>
       <c r="G53" t="n">
-        <v>264818.97</v>
+        <v>1217800.75</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1218305.75</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1319470.49</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1382507.41</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1380766.51</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1382264.96</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1380959.81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>190190.79</v>
+        <v>265311.28</v>
       </c>
       <c r="C54" t="n">
-        <v>190264.48</v>
+        <v>265070.5</v>
       </c>
       <c r="D54" t="n">
-        <v>192315.58</v>
+        <v>265317.49</v>
       </c>
       <c r="E54" t="n">
-        <v>190166.81</v>
+        <v>264592.37</v>
       </c>
       <c r="F54" t="n">
-        <v>190270.8</v>
+        <v>265455.94</v>
       </c>
       <c r="G54" t="n">
-        <v>205649.71</v>
+        <v>264931.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>264978.08</v>
+      </c>
+      <c r="I54" t="n">
+        <v>265016.38</v>
+      </c>
+      <c r="J54" t="n">
+        <v>265182.97</v>
+      </c>
+      <c r="K54" t="n">
+        <v>265175.33</v>
+      </c>
+      <c r="L54" t="n">
+        <v>265123.83</v>
+      </c>
+      <c r="M54" t="n">
+        <v>264862.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>578269.13</v>
+        <v>179215.94</v>
       </c>
       <c r="C55" t="n">
-        <v>577669.87</v>
+        <v>179222.74</v>
       </c>
       <c r="D55" t="n">
-        <v>581450.22</v>
+        <v>179187.38</v>
       </c>
       <c r="E55" t="n">
-        <v>575121.03</v>
+        <v>179256.18</v>
       </c>
       <c r="F55" t="n">
-        <v>579801.62</v>
+        <v>179222.47</v>
       </c>
       <c r="G55" t="n">
-        <v>589051.75</v>
+        <v>179283.83</v>
+      </c>
+      <c r="H55" t="n">
+        <v>179286.51</v>
+      </c>
+      <c r="I55" t="n">
+        <v>179185.61</v>
+      </c>
+      <c r="J55" t="n">
+        <v>179205.8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>179239.03</v>
+      </c>
+      <c r="L55" t="n">
+        <v>190179.33</v>
+      </c>
+      <c r="M55" t="n">
+        <v>190190.79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>103625.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>103640.49</v>
+      </c>
+      <c r="D56" t="n">
+        <v>103621.96</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>623561.03</v>
+      </c>
+      <c r="C57" t="n">
+        <v>635135.1899999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>627958.46</v>
+      </c>
+      <c r="E57" t="n">
+        <v>593818.67</v>
+      </c>
+      <c r="F57" t="n">
+        <v>596702.74</v>
+      </c>
+      <c r="G57" t="n">
+        <v>595771.36</v>
+      </c>
+      <c r="H57" t="n">
+        <v>598775.2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>594837.62</v>
+      </c>
+      <c r="J57" t="n">
+        <v>590732.66</v>
+      </c>
+      <c r="K57" t="n">
+        <v>587347.89</v>
+      </c>
+      <c r="L57" t="n">
+        <v>582307.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>578269.13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B58" t="n">
+        <v>33672295.76</v>
+      </c>
+      <c r="C58" t="n">
+        <v>26675677.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>33909756.72</v>
+      </c>
+      <c r="E58" t="n">
+        <v>31472389.69</v>
+      </c>
+      <c r="F58" t="n">
+        <v>31625245.33</v>
+      </c>
+      <c r="G58" t="n">
+        <v>31575881.85</v>
+      </c>
+      <c r="H58" t="n">
+        <v>31735085.68</v>
+      </c>
+      <c r="I58" t="n">
+        <v>31526393.63</v>
+      </c>
+      <c r="J58" t="n">
+        <v>31308831.08</v>
+      </c>
+      <c r="K58" t="n">
+        <v>31129438.21</v>
+      </c>
+      <c r="L58" t="n">
+        <v>30862297.32</v>
+      </c>
+      <c r="M58" t="n">
         <v>30648263.95</v>
-      </c>
-      <c r="C56" t="n">
-        <v>30616503.35</v>
-      </c>
-      <c r="D56" t="n">
-        <v>30816861.59</v>
-      </c>
-      <c r="E56" t="n">
-        <v>30481414.85</v>
-      </c>
-      <c r="F56" t="n">
-        <v>30729486.02</v>
-      </c>
-      <c r="G56" t="n">
-        <v>31219742.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/PAMP.xlsx
+++ b/backend/src/excel_handler/files/PAMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365309.07</v>
+        <v>326571.33</v>
       </c>
       <c r="C2" t="n">
-        <v>485699.02</v>
+        <v>345372.51</v>
       </c>
       <c r="D2" t="n">
-        <v>565101.89</v>
+        <v>349363.5</v>
       </c>
       <c r="E2" t="n">
-        <v>594908.27</v>
+        <v>345649.83</v>
       </c>
       <c r="F2" t="n">
-        <v>594853.52</v>
+        <v>377563.55</v>
       </c>
       <c r="G2" t="n">
-        <v>590759.26</v>
+        <v>384842.74</v>
       </c>
       <c r="H2" t="n">
-        <v>564436.64</v>
+        <v>385014.51</v>
       </c>
       <c r="I2" t="n">
-        <v>412652.61</v>
+        <v>384880.66</v>
       </c>
       <c r="J2" t="n">
-        <v>391732.36</v>
+        <v>472299.69</v>
       </c>
       <c r="K2" t="n">
-        <v>371321.38</v>
+        <v>499989.95</v>
       </c>
       <c r="L2" t="n">
-        <v>348225.65</v>
+        <v>540088.7</v>
       </c>
       <c r="M2" t="n">
-        <v>326571.33</v>
+        <v>578242.12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>603454.87</v>
+      </c>
+      <c r="O2" t="n">
+        <v>660481.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>755386.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>770445.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>780897.52</v>
+      </c>
+      <c r="S2" t="n">
+        <v>797172.0600000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>790504.26</v>
+      </c>
+      <c r="U2" t="n">
+        <v>745134.64</v>
+      </c>
+      <c r="V2" t="n">
+        <v>813202.48</v>
+      </c>
+      <c r="W2" t="n">
+        <v>866943.9300000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>909549.38</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>872281.9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>768852.09</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>732770.21</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>819184.9</v>
+        <v>891808.46</v>
       </c>
       <c r="C3" t="n">
-        <v>819190.8199999999</v>
+        <v>892270.67</v>
       </c>
       <c r="D3" t="n">
-        <v>861227.13</v>
+        <v>901778.84</v>
       </c>
       <c r="E3" t="n">
-        <v>895516.92</v>
+        <v>892552.3199999999</v>
       </c>
       <c r="F3" t="n">
-        <v>851160.7</v>
+        <v>891964.67</v>
       </c>
       <c r="G3" t="n">
-        <v>850994.1800000001</v>
+        <v>937219.0600000001</v>
       </c>
       <c r="H3" t="n">
-        <v>850767.0699999999</v>
+        <v>936699.14</v>
       </c>
       <c r="I3" t="n">
-        <v>850744.33</v>
+        <v>936810.97</v>
       </c>
       <c r="J3" t="n">
-        <v>861052.8</v>
+        <v>1001747.75</v>
       </c>
       <c r="K3" t="n">
-        <v>851655.38</v>
+        <v>1001644.46</v>
       </c>
       <c r="L3" t="n">
-        <v>851944.45</v>
+        <v>965243.51</v>
       </c>
       <c r="M3" t="n">
-        <v>891808.46</v>
+        <v>950078.84</v>
+      </c>
+      <c r="N3" t="n">
+        <v>979957.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>980687.95</v>
+      </c>
+      <c r="P3" t="n">
+        <v>980318.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1015978.14</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1037937.64</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1061050.72</v>
+      </c>
+      <c r="T3" t="n">
+        <v>980594.54</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1033867.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1033096.23</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1063896.39</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1121112.92</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1095107.39</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1119476.28</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1094980.55</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123274.27</v>
+        <v>148460.34</v>
       </c>
       <c r="C4" t="n">
-        <v>128213.71</v>
+        <v>148385.27</v>
       </c>
       <c r="D4" t="n">
-        <v>138249.5</v>
+        <v>150032.97</v>
       </c>
       <c r="E4" t="n">
-        <v>138202.45</v>
+        <v>148457.76</v>
       </c>
       <c r="F4" t="n">
-        <v>148331.37</v>
+        <v>153471.29</v>
       </c>
       <c r="G4" t="n">
-        <v>148238.08</v>
+        <v>153429.77</v>
       </c>
       <c r="H4" t="n">
-        <v>148350.96</v>
+        <v>153405.9</v>
       </c>
       <c r="I4" t="n">
-        <v>148449.15</v>
+        <v>153343.76</v>
       </c>
       <c r="J4" t="n">
-        <v>149868.16</v>
+        <v>160705.32</v>
       </c>
       <c r="K4" t="n">
-        <v>148435.69</v>
+        <v>160587.95</v>
       </c>
       <c r="L4" t="n">
-        <v>148429.94</v>
+        <v>170537.5</v>
       </c>
       <c r="M4" t="n">
-        <v>148460.34</v>
+        <v>170574.56</v>
+      </c>
+      <c r="N4" t="n">
+        <v>170645.11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>170448.41</v>
+      </c>
+      <c r="P4" t="n">
+        <v>170504.86</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>193871.33</v>
+      </c>
+      <c r="R4" t="n">
+        <v>210039.83</v>
+      </c>
+      <c r="S4" t="n">
+        <v>209934.73</v>
+      </c>
+      <c r="T4" t="n">
+        <v>210058.88</v>
+      </c>
+      <c r="U4" t="n">
+        <v>181676.03</v>
+      </c>
+      <c r="V4" t="n">
+        <v>242437.39</v>
+      </c>
+      <c r="W4" t="n">
+        <v>207332.63</v>
+      </c>
+      <c r="X4" t="n">
+        <v>214154.83</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>232673.86</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>232727.15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>232677.03</v>
       </c>
     </row>
     <row r="5">
@@ -630,36 +826,60 @@
           <t>Adcap Wise</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>336191.51</v>
+      </c>
+      <c r="C5" t="n">
+        <v>290090.37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>285581.95</v>
+      </c>
       <c r="E5" t="n">
-        <v>278307.57</v>
+        <v>254749.89</v>
       </c>
       <c r="F5" t="n">
-        <v>292408.6</v>
+        <v>279291.51</v>
       </c>
       <c r="G5" t="n">
-        <v>286332.14</v>
+        <v>278582.84</v>
       </c>
       <c r="H5" t="n">
-        <v>282171.11</v>
+        <v>281124.73</v>
       </c>
       <c r="I5" t="n">
-        <v>284891.8</v>
+        <v>257210.42</v>
       </c>
       <c r="J5" t="n">
-        <v>289020.82</v>
+        <v>265705.69</v>
       </c>
       <c r="K5" t="n">
-        <v>310831.72</v>
+        <v>262881.13</v>
       </c>
       <c r="L5" t="n">
-        <v>330826.5</v>
+        <v>249921.28</v>
       </c>
       <c r="M5" t="n">
-        <v>336191.51</v>
-      </c>
+        <v>225347.63</v>
+      </c>
+      <c r="N5" t="n">
+        <v>214417.18</v>
+      </c>
+      <c r="O5" t="n">
+        <v>221076.16</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -668,40 +888,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178433.93</v>
+        <v>185469.78</v>
       </c>
       <c r="C6" t="n">
-        <v>178472.19</v>
+        <v>185394.53</v>
       </c>
       <c r="D6" t="n">
-        <v>181482.19</v>
+        <v>187543.46</v>
       </c>
       <c r="E6" t="n">
-        <v>183409.72</v>
+        <v>185474.04</v>
       </c>
       <c r="F6" t="n">
-        <v>183496.65</v>
+        <v>214271.01</v>
       </c>
       <c r="G6" t="n">
-        <v>183432.33</v>
+        <v>229190.13</v>
       </c>
       <c r="H6" t="n">
-        <v>183481.33</v>
+        <v>245457.41</v>
       </c>
       <c r="I6" t="n">
-        <v>183444.34</v>
+        <v>241468.59</v>
       </c>
       <c r="J6" t="n">
-        <v>183372.63</v>
+        <v>278198.57</v>
       </c>
       <c r="K6" t="n">
-        <v>185460.5</v>
+        <v>277975.52</v>
       </c>
       <c r="L6" t="n">
-        <v>185490.68</v>
+        <v>284176.72</v>
       </c>
       <c r="M6" t="n">
-        <v>185469.78</v>
+        <v>301203.66</v>
+      </c>
+      <c r="N6" t="n">
+        <v>335247.26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>335338.78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>344219.65</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>360645.47</v>
+      </c>
+      <c r="R6" t="n">
+        <v>373690.08</v>
+      </c>
+      <c r="S6" t="n">
+        <v>392775.93</v>
+      </c>
+      <c r="T6" t="n">
+        <v>399280.46</v>
+      </c>
+      <c r="U6" t="n">
+        <v>413993.38</v>
+      </c>
+      <c r="V6" t="n">
+        <v>437311.58</v>
+      </c>
+      <c r="W6" t="n">
+        <v>447900.86</v>
+      </c>
+      <c r="X6" t="n">
+        <v>460575.83</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>460817.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>483619.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>481127.19</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +973,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289342.64</v>
+        <v>259991.28</v>
       </c>
       <c r="C7" t="n">
-        <v>309685.18</v>
+        <v>260022.97</v>
       </c>
       <c r="D7" t="n">
-        <v>325739.35</v>
+        <v>262880.63</v>
       </c>
       <c r="E7" t="n">
-        <v>326157.33</v>
+        <v>260315.17</v>
       </c>
       <c r="F7" t="n">
-        <v>326083.09</v>
+        <v>260256.15</v>
       </c>
       <c r="G7" t="n">
-        <v>325917.54</v>
+        <v>337293.84</v>
       </c>
       <c r="H7" t="n">
-        <v>326136.85</v>
+        <v>337103.54</v>
       </c>
       <c r="I7" t="n">
-        <v>326012.84</v>
+        <v>337051.1</v>
       </c>
       <c r="J7" t="n">
-        <v>326155.28</v>
+        <v>337260.78</v>
       </c>
       <c r="K7" t="n">
-        <v>325770.32</v>
+        <v>336951.69</v>
       </c>
       <c r="L7" t="n">
-        <v>259968.35</v>
+        <v>336954.55</v>
       </c>
       <c r="M7" t="n">
-        <v>259991.28</v>
+        <v>336902.14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>337327.18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>336930.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>337131.43</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>337127.27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>337078.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>376186.63</v>
+      </c>
+      <c r="T7" t="n">
+        <v>376783.19</v>
+      </c>
+      <c r="U7" t="n">
+        <v>470879.47</v>
+      </c>
+      <c r="V7" t="n">
+        <v>786540.14</v>
+      </c>
+      <c r="W7" t="n">
+        <v>954344.16</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1018474.67</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>922482.63</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>922495.47</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>897030.3</v>
       </c>
     </row>
     <row r="8">
@@ -754,40 +1058,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>123.92</v>
+        <v>106.59</v>
       </c>
       <c r="C8" t="n">
-        <v>118.5</v>
+        <v>105.69</v>
       </c>
       <c r="D8" t="n">
-        <v>115.43</v>
+        <v>105.02</v>
       </c>
       <c r="E8" t="n">
-        <v>117.67</v>
+        <v>105.43</v>
       </c>
       <c r="F8" t="n">
-        <v>115.14</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>116.17</v>
+        <v>93.16</v>
       </c>
       <c r="H8" t="n">
-        <v>116.13</v>
+        <v>94.17</v>
       </c>
       <c r="I8" t="n">
-        <v>114.04</v>
+        <v>94.2</v>
       </c>
       <c r="J8" t="n">
-        <v>112.84</v>
+        <v>90.03</v>
       </c>
       <c r="K8" t="n">
-        <v>106.81</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>107.28</v>
+        <v>87.64</v>
       </c>
       <c r="M8" t="n">
-        <v>106.59</v>
+        <v>85.34</v>
+      </c>
+      <c r="N8" t="n">
+        <v>267.99</v>
+      </c>
+      <c r="O8" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>82.03</v>
+      </c>
+      <c r="R8" t="n">
+        <v>84.03</v>
+      </c>
+      <c r="S8" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="U8" t="n">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="X8" t="n">
+        <v>60.61</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>58.55</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>58.51</v>
       </c>
     </row>
     <row r="9">
@@ -797,40 +1143,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>943595.25</v>
+        <v>807649.05</v>
       </c>
       <c r="C9" t="n">
-        <v>943783.88</v>
+        <v>807306.49</v>
       </c>
       <c r="D9" t="n">
-        <v>943141.51</v>
+        <v>816261.3</v>
       </c>
       <c r="E9" t="n">
-        <v>943356.6899999999</v>
+        <v>801071.5699999999</v>
       </c>
       <c r="F9" t="n">
-        <v>943795.39</v>
+        <v>801349.92</v>
       </c>
       <c r="G9" t="n">
-        <v>943457.1</v>
+        <v>801006.89</v>
       </c>
       <c r="H9" t="n">
-        <v>943368.14</v>
+        <v>801367.65</v>
       </c>
       <c r="I9" t="n">
-        <v>943606.22</v>
+        <v>801032.7</v>
       </c>
       <c r="J9" t="n">
-        <v>911869.8100000001</v>
+        <v>801041.7</v>
       </c>
       <c r="K9" t="n">
-        <v>872623.8</v>
+        <v>801327.8199999999</v>
       </c>
       <c r="L9" t="n">
-        <v>871838.8</v>
+        <v>801100.09</v>
       </c>
       <c r="M9" t="n">
-        <v>807649.05</v>
+        <v>801241.6899999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>801364.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>801029.99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>787315.27</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>786964.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>786723.49</v>
+      </c>
+      <c r="S9" t="n">
+        <v>787104.51</v>
+      </c>
+      <c r="T9" t="n">
+        <v>788110.34</v>
+      </c>
+      <c r="U9" t="n">
+        <v>786846.59</v>
+      </c>
+      <c r="V9" t="n">
+        <v>787070.8100000001</v>
+      </c>
+      <c r="W9" t="n">
+        <v>786702.98</v>
+      </c>
+      <c r="X9" t="n">
+        <v>786966.52</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>786975.0600000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>787112.13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>786860.95</v>
       </c>
     </row>
     <row r="10">
@@ -840,40 +1228,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625408.05</v>
+        <v>660488.37</v>
       </c>
       <c r="C10" t="n">
-        <v>660466.28</v>
+        <v>660639.84</v>
       </c>
       <c r="D10" t="n">
-        <v>660430.85</v>
+        <v>668123.89</v>
       </c>
       <c r="E10" t="n">
-        <v>660570.37</v>
+        <v>660376.75</v>
       </c>
       <c r="F10" t="n">
-        <v>660499.48</v>
+        <v>660619.02</v>
       </c>
       <c r="G10" t="n">
-        <v>660626.79</v>
+        <v>710663.58</v>
       </c>
       <c r="H10" t="n">
-        <v>660474.14</v>
+        <v>710395.54</v>
       </c>
       <c r="I10" t="n">
-        <v>660607.4300000001</v>
+        <v>710549.01</v>
       </c>
       <c r="J10" t="n">
-        <v>660581.54</v>
+        <v>710444.48</v>
       </c>
       <c r="K10" t="n">
-        <v>660511.6899999999</v>
+        <v>710553.67</v>
       </c>
       <c r="L10" t="n">
-        <v>660546.01</v>
+        <v>710561.52</v>
       </c>
       <c r="M10" t="n">
-        <v>660488.37</v>
+        <v>710731.38</v>
+      </c>
+      <c r="N10" t="n">
+        <v>710695.95</v>
+      </c>
+      <c r="O10" t="n">
+        <v>710689.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>710642.22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>710386.08</v>
+      </c>
+      <c r="R10" t="n">
+        <v>710659.05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>743507.27</v>
+      </c>
+      <c r="T10" t="n">
+        <v>744747.12</v>
+      </c>
+      <c r="U10" t="n">
+        <v>743825.71</v>
+      </c>
+      <c r="V10" t="n">
+        <v>743814.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>743825.24</v>
+      </c>
+      <c r="X10" t="n">
+        <v>743555.96</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>743605.83</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>743490.71</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>743740.17</v>
       </c>
     </row>
     <row r="11">
@@ -883,40 +1313,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>311282.15</v>
+        <v>358659.32</v>
       </c>
       <c r="C11" t="n">
-        <v>342697.15</v>
+        <v>358611.02</v>
       </c>
       <c r="D11" t="n">
-        <v>394551.38</v>
+        <v>362501.05</v>
       </c>
       <c r="E11" t="n">
-        <v>394540.44</v>
+        <v>358517.86</v>
       </c>
       <c r="F11" t="n">
-        <v>394632.68</v>
+        <v>358446.6</v>
       </c>
       <c r="G11" t="n">
-        <v>430891.17</v>
+        <v>358568.46</v>
       </c>
       <c r="H11" t="n">
-        <v>430739.11</v>
+        <v>358476.64</v>
       </c>
       <c r="I11" t="n">
-        <v>430844.21</v>
+        <v>358431.37</v>
       </c>
       <c r="J11" t="n">
-        <v>430768.61</v>
+        <v>358651.5</v>
       </c>
       <c r="K11" t="n">
-        <v>430703.45</v>
+        <v>358599.16</v>
       </c>
       <c r="L11" t="n">
-        <v>430829.54</v>
+        <v>358387.68</v>
       </c>
       <c r="M11" t="n">
-        <v>358659.32</v>
+        <v>358468.89</v>
+      </c>
+      <c r="N11" t="n">
+        <v>358479.51</v>
+      </c>
+      <c r="O11" t="n">
+        <v>358599.11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>358525.76</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>358600.23</v>
+      </c>
+      <c r="R11" t="n">
+        <v>358519.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>396979.73</v>
+      </c>
+      <c r="T11" t="n">
+        <v>397378.07</v>
+      </c>
+      <c r="U11" t="n">
+        <v>396980.79</v>
+      </c>
+      <c r="V11" t="n">
+        <v>397062.44</v>
+      </c>
+      <c r="W11" t="n">
+        <v>396809.76</v>
+      </c>
+      <c r="X11" t="n">
+        <v>396973.1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>396897.37</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>396915.55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>396938.05</v>
       </c>
     </row>
     <row r="12">
@@ -926,40 +1398,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16532.89</v>
+        <v>7600.44</v>
       </c>
       <c r="C12" t="n">
-        <v>7610.35</v>
+        <v>7596.77</v>
       </c>
       <c r="D12" t="n">
-        <v>7609.19</v>
+        <v>7714.03</v>
       </c>
       <c r="E12" t="n">
-        <v>7643.86</v>
+        <v>7613.88</v>
       </c>
       <c r="F12" t="n">
-        <v>7623.54</v>
+        <v>7604.41</v>
       </c>
       <c r="G12" t="n">
-        <v>7614.69</v>
+        <v>7627.25</v>
       </c>
       <c r="H12" t="n">
-        <v>7618.01</v>
+        <v>7650.3</v>
       </c>
       <c r="I12" t="n">
-        <v>7595.12</v>
+        <v>7637.29</v>
       </c>
       <c r="J12" t="n">
-        <v>7615.1</v>
+        <v>7637.47</v>
       </c>
       <c r="K12" t="n">
-        <v>7619.28</v>
+        <v>9004.290000000001</v>
       </c>
       <c r="L12" t="n">
-        <v>7638.54</v>
+        <v>8987.41</v>
       </c>
       <c r="M12" t="n">
-        <v>7600.44</v>
+        <v>11473</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11465.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11478.59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11471.89</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11479.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11492.22</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11459.64</v>
+      </c>
+      <c r="T12" t="n">
+        <v>11495.89</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11487.34</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11478.12</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11500.83</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11473.88</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11473.19</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>16322.27</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>16318.2</v>
       </c>
     </row>
     <row r="13">
@@ -969,40 +1483,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2450230.98</v>
+        <v>2450887.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2449779.31</v>
+        <v>2450012.25</v>
       </c>
       <c r="D13" t="n">
-        <v>2448999.77</v>
+        <v>2476744.78</v>
       </c>
       <c r="E13" t="n">
-        <v>2448826.62</v>
+        <v>2448759.65</v>
       </c>
       <c r="F13" t="n">
-        <v>2449754.75</v>
+        <v>2459190.49</v>
       </c>
       <c r="G13" t="n">
-        <v>2449114.4</v>
+        <v>2457425.41</v>
       </c>
       <c r="H13" t="n">
-        <v>2449734.42</v>
+        <v>2458324.23</v>
       </c>
       <c r="I13" t="n">
-        <v>2449456.68</v>
+        <v>2457937.86</v>
       </c>
       <c r="J13" t="n">
-        <v>2450864.09</v>
+        <v>2457157.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2448109.23</v>
+        <v>2457370.25</v>
       </c>
       <c r="L13" t="n">
-        <v>2448611.77</v>
+        <v>2457690.47</v>
       </c>
       <c r="M13" t="n">
-        <v>2450887.05</v>
+        <v>2458876.29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2459184.43</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2458435.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2459033.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2457076.77</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2458661.3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2458930.82</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2322881.56</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2192505.53</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2193073.08</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2192713.01</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2067708.75</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1903244.51</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1903001.83</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1903468.02</v>
       </c>
     </row>
     <row r="14">
@@ -1012,40 +1568,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39159.76</v>
+        <v>4667.55</v>
       </c>
       <c r="C14" t="n">
-        <v>39169.13</v>
+        <v>4670.3</v>
       </c>
       <c r="D14" t="n">
-        <v>39163.55</v>
+        <v>4719.36</v>
       </c>
       <c r="E14" t="n">
-        <v>39184.03</v>
+        <v>4668.03</v>
       </c>
       <c r="F14" t="n">
-        <v>39103.4</v>
+        <v>4670.29</v>
       </c>
       <c r="G14" t="n">
-        <v>39100.78</v>
+        <v>4670.59</v>
       </c>
       <c r="H14" t="n">
-        <v>39091.37</v>
+        <v>4667.58</v>
       </c>
       <c r="I14" t="n">
-        <v>39116.01</v>
+        <v>4668.59</v>
       </c>
       <c r="J14" t="n">
-        <v>39067.59</v>
+        <v>4669.63</v>
       </c>
       <c r="K14" t="n">
-        <v>4667.03</v>
+        <v>4669.5</v>
       </c>
       <c r="L14" t="n">
-        <v>4670.08</v>
+        <v>26990.85</v>
       </c>
       <c r="M14" t="n">
-        <v>4667.55</v>
+        <v>26992.21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>26986.57</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9067.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8588.67</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8586.690000000001</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8588.110000000001</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8584.299999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8602.030000000001</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8585.450000000001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8586.92</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8585.959999999999</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8588.440000000001</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8585.780000000001</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8589.85</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8718.09</v>
       </c>
     </row>
     <row r="15">
@@ -1055,40 +1653,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8033.56</v>
+        <v>8032.98</v>
       </c>
       <c r="C15" t="n">
-        <v>8031.2</v>
+        <v>8030.04</v>
       </c>
       <c r="D15" t="n">
-        <v>8031.67</v>
+        <v>8120.32</v>
       </c>
       <c r="E15" t="n">
-        <v>8028.06</v>
+        <v>8029.22</v>
       </c>
       <c r="F15" t="n">
-        <v>8027.71</v>
+        <v>8031.06</v>
       </c>
       <c r="G15" t="n">
-        <v>8029.42</v>
+        <v>8034.05</v>
       </c>
       <c r="H15" t="n">
-        <v>8028.53</v>
+        <v>8030.78</v>
       </c>
       <c r="I15" t="n">
-        <v>8031.33</v>
+        <v>8030.2</v>
       </c>
       <c r="J15" t="n">
-        <v>8030.13</v>
+        <v>8031.1</v>
       </c>
       <c r="K15" t="n">
-        <v>8033.42</v>
+        <v>8030.27</v>
       </c>
       <c r="L15" t="n">
-        <v>8028.8</v>
+        <v>8033.2</v>
       </c>
       <c r="M15" t="n">
-        <v>8032.98</v>
+        <v>8032.79</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8032.87</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8029.55</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8033.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>8031.77</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8030.37</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8033.76</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8041.49</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8030.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8032.73</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8033.12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8030.43</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8031.35</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8033.7</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>8028.05</v>
       </c>
     </row>
     <row r="16">
@@ -1098,40 +1738,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14883.9</v>
+        <v>14868.43</v>
       </c>
       <c r="C16" t="n">
-        <v>14866.78</v>
+        <v>14870.75</v>
       </c>
       <c r="D16" t="n">
-        <v>14892.57</v>
+        <v>15050.85</v>
       </c>
       <c r="E16" t="n">
-        <v>14885.81</v>
+        <v>14877.37</v>
       </c>
       <c r="F16" t="n">
-        <v>14881.79</v>
+        <v>14883.43</v>
       </c>
       <c r="G16" t="n">
-        <v>14877.45</v>
+        <v>14866.57</v>
       </c>
       <c r="H16" t="n">
-        <v>14870.92</v>
+        <v>14883.82</v>
       </c>
       <c r="I16" t="n">
-        <v>14863.62</v>
+        <v>14872.7</v>
       </c>
       <c r="J16" t="n">
-        <v>14890.3</v>
+        <v>14883.71</v>
       </c>
       <c r="K16" t="n">
-        <v>14865.84</v>
+        <v>14883.76</v>
       </c>
       <c r="L16" t="n">
-        <v>14866.39</v>
+        <v>14882.84</v>
       </c>
       <c r="M16" t="n">
-        <v>14868.43</v>
+        <v>14883.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14878.32</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14873.54</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14871.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14887.86</v>
+      </c>
+      <c r="R16" t="n">
+        <v>14862.13</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14889.07</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14880.93</v>
+      </c>
+      <c r="U16" t="n">
+        <v>14887.74</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14871.55</v>
+      </c>
+      <c r="W16" t="n">
+        <v>14885.26</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14871.52</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14895.62</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14876.17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>14888.3</v>
       </c>
     </row>
     <row r="17">
@@ -1141,40 +1823,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>628981.3</v>
+        <v>613580.42</v>
       </c>
       <c r="C17" t="n">
-        <v>638329.25</v>
+        <v>662913.3</v>
       </c>
       <c r="D17" t="n">
-        <v>628556.1800000001</v>
+        <v>663476.13</v>
       </c>
       <c r="E17" t="n">
-        <v>628700.3199999999</v>
+        <v>677014.1</v>
       </c>
       <c r="F17" t="n">
-        <v>649253.6899999999</v>
+        <v>686644.01</v>
       </c>
       <c r="G17" t="n">
-        <v>643703.83</v>
+        <v>693053.87</v>
       </c>
       <c r="H17" t="n">
-        <v>643550.45</v>
+        <v>705495.99</v>
       </c>
       <c r="I17" t="n">
-        <v>643415.09</v>
+        <v>767549.79</v>
       </c>
       <c r="J17" t="n">
-        <v>643100.42</v>
+        <v>755865.46</v>
       </c>
       <c r="K17" t="n">
-        <v>637138.97</v>
+        <v>765828.42</v>
       </c>
       <c r="L17" t="n">
-        <v>613530.96</v>
+        <v>763341.64</v>
       </c>
       <c r="M17" t="n">
-        <v>613580.42</v>
+        <v>828829.89</v>
+      </c>
+      <c r="N17" t="n">
+        <v>833831.4300000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>869522.78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>902663.01</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>966867.16</v>
+      </c>
+      <c r="R17" t="n">
+        <v>928877.98</v>
+      </c>
+      <c r="S17" t="n">
+        <v>939768.28</v>
+      </c>
+      <c r="T17" t="n">
+        <v>961863.62</v>
+      </c>
+      <c r="U17" t="n">
+        <v>936556.58</v>
+      </c>
+      <c r="V17" t="n">
+        <v>968436.5699999999</v>
+      </c>
+      <c r="W17" t="n">
+        <v>974665.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1001324.17</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>981717.17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1041763.14</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1072394.03</v>
       </c>
     </row>
     <row r="18">
@@ -1184,40 +1908,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91964.45</v>
+        <v>146357.27</v>
       </c>
       <c r="C18" t="n">
-        <v>105811.67</v>
+        <v>146405.24</v>
       </c>
       <c r="D18" t="n">
-        <v>109707.93</v>
+        <v>148057.98</v>
       </c>
       <c r="E18" t="n">
-        <v>126410.53</v>
+        <v>146402.13</v>
       </c>
       <c r="F18" t="n">
-        <v>142644.4</v>
+        <v>146438.97</v>
       </c>
       <c r="G18" t="n">
-        <v>142647.01</v>
+        <v>146476.23</v>
       </c>
       <c r="H18" t="n">
-        <v>153253.26</v>
+        <v>143409.12</v>
       </c>
       <c r="I18" t="n">
-        <v>153277.96</v>
+        <v>146997.07</v>
       </c>
       <c r="J18" t="n">
-        <v>153308.8</v>
+        <v>149425.11</v>
       </c>
       <c r="K18" t="n">
-        <v>153257.84</v>
+        <v>149543.38</v>
       </c>
       <c r="L18" t="n">
-        <v>146470.24</v>
+        <v>155709.97</v>
       </c>
       <c r="M18" t="n">
-        <v>146357.27</v>
+        <v>158537.98</v>
+      </c>
+      <c r="N18" t="n">
+        <v>158610.78</v>
+      </c>
+      <c r="O18" t="n">
+        <v>165182.68</v>
+      </c>
+      <c r="P18" t="n">
+        <v>171724.68</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>190732.32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>197388.92</v>
+      </c>
+      <c r="S18" t="n">
+        <v>202488.76</v>
+      </c>
+      <c r="T18" t="n">
+        <v>201240.47</v>
+      </c>
+      <c r="U18" t="n">
+        <v>193681.03</v>
+      </c>
+      <c r="V18" t="n">
+        <v>201834.03</v>
+      </c>
+      <c r="W18" t="n">
+        <v>207718.99</v>
+      </c>
+      <c r="X18" t="n">
+        <v>221971.51</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>217621.87</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>206975.09</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>203780.66</v>
       </c>
     </row>
     <row r="19">
@@ -1227,40 +1993,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>491519.94</v>
+        <v>435678.57</v>
       </c>
       <c r="C19" t="n">
-        <v>449341</v>
+        <v>435855.34</v>
       </c>
       <c r="D19" t="n">
-        <v>430757.43</v>
+        <v>440680.48</v>
       </c>
       <c r="E19" t="n">
-        <v>430957.13</v>
+        <v>435924.43</v>
       </c>
       <c r="F19" t="n">
-        <v>441932.59</v>
+        <v>435814.17</v>
       </c>
       <c r="G19" t="n">
-        <v>435735.88</v>
+        <v>466761.64</v>
       </c>
       <c r="H19" t="n">
-        <v>435920.96</v>
+        <v>466704.13</v>
       </c>
       <c r="I19" t="n">
-        <v>435829.94</v>
+        <v>468912.62</v>
       </c>
       <c r="J19" t="n">
-        <v>435692.77</v>
+        <v>468699.54</v>
       </c>
       <c r="K19" t="n">
-        <v>435856.21</v>
+        <v>468834.37</v>
       </c>
       <c r="L19" t="n">
-        <v>435694.56</v>
+        <v>473847.26</v>
       </c>
       <c r="M19" t="n">
-        <v>435678.57</v>
+        <v>473816.39</v>
+      </c>
+      <c r="N19" t="n">
+        <v>473645.18</v>
+      </c>
+      <c r="O19" t="n">
+        <v>471998.59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>439810.53</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>402432.58</v>
+      </c>
+      <c r="R19" t="n">
+        <v>402431.93</v>
+      </c>
+      <c r="S19" t="n">
+        <v>402389.98</v>
+      </c>
+      <c r="T19" t="n">
+        <v>403007.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>402345.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>402406.35</v>
+      </c>
+      <c r="W19" t="n">
+        <v>402531.7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>382449.88</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>379769.26</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>352503.86</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>352608.77</v>
       </c>
     </row>
     <row r="20">
@@ -1270,40 +2078,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2902240.16</v>
+        <v>2665148.5</v>
       </c>
       <c r="C20" t="n">
-        <v>2882031.52</v>
+        <v>2651809.81</v>
       </c>
       <c r="D20" t="n">
-        <v>2868725.96</v>
+        <v>2662453.34</v>
       </c>
       <c r="E20" t="n">
-        <v>2842747.63</v>
+        <v>2618416.72</v>
       </c>
       <c r="F20" t="n">
-        <v>2830869.21</v>
+        <v>2605591.41</v>
       </c>
       <c r="G20" t="n">
-        <v>2804654.31</v>
+        <v>2592904.83</v>
       </c>
       <c r="H20" t="n">
-        <v>2786874.85</v>
+        <v>2592813.23</v>
       </c>
       <c r="I20" t="n">
-        <v>2757036.32</v>
+        <v>2605285.24</v>
       </c>
       <c r="J20" t="n">
-        <v>2716074.05</v>
+        <v>2605182.58</v>
       </c>
       <c r="K20" t="n">
-        <v>2699716.28</v>
+        <v>2592343.51</v>
       </c>
       <c r="L20" t="n">
-        <v>2692524.46</v>
+        <v>2591736.94</v>
       </c>
       <c r="M20" t="n">
-        <v>2665148.5</v>
+        <v>2579707.35</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2578905.78</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2567976.1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2566957.06</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2568158.48</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2561771.53</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2556702.18</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2549215.74</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2540826.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2545839.08</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2545181.36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2559087.59</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2559127.72</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2558960.09</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2559290.73</v>
       </c>
     </row>
     <row r="21">
@@ -1313,40 +2163,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17525.18</v>
+        <v>17518.19</v>
       </c>
       <c r="C21" t="n">
-        <v>17517.08</v>
+        <v>17525.56</v>
       </c>
       <c r="D21" t="n">
-        <v>17522.36</v>
+        <v>17719.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17519.84</v>
+        <v>17523.96</v>
       </c>
       <c r="F21" t="n">
-        <v>17517.82</v>
+        <v>17514.51</v>
       </c>
       <c r="G21" t="n">
-        <v>17516.39</v>
+        <v>17520.01</v>
       </c>
       <c r="H21" t="n">
-        <v>17524.76</v>
+        <v>17520.44</v>
       </c>
       <c r="I21" t="n">
-        <v>17515.07</v>
+        <v>17525.22</v>
       </c>
       <c r="J21" t="n">
-        <v>17525.07</v>
+        <v>17517.49</v>
       </c>
       <c r="K21" t="n">
-        <v>17525.36</v>
+        <v>17515.51</v>
       </c>
       <c r="L21" t="n">
-        <v>17522.46</v>
+        <v>17516.68</v>
       </c>
       <c r="M21" t="n">
-        <v>17518.19</v>
+        <v>17516.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17521.57</v>
+      </c>
+      <c r="O21" t="n">
+        <v>17515.88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17526.48</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>17518.36</v>
+      </c>
+      <c r="R21" t="n">
+        <v>17513.27</v>
+      </c>
+      <c r="S21" t="n">
+        <v>17518.02</v>
+      </c>
+      <c r="T21" t="n">
+        <v>17546.74</v>
+      </c>
+      <c r="U21" t="n">
+        <v>17517.32</v>
+      </c>
+      <c r="V21" t="n">
+        <v>17525.43</v>
+      </c>
+      <c r="W21" t="n">
+        <v>17514.24</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17516.35</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>17518.17</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17514.35</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17513.56</v>
       </c>
     </row>
     <row r="22">
@@ -1356,38 +2248,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1537135.72</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>1472864.02</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1472818.84</v>
+      </c>
       <c r="D22" t="n">
-        <v>1536490.53</v>
+        <v>1488816</v>
       </c>
       <c r="E22" t="n">
-        <v>1536329.2</v>
+        <v>1472873.11</v>
       </c>
       <c r="F22" t="n">
-        <v>1536828.43</v>
+        <v>1472024.15</v>
       </c>
       <c r="G22" t="n">
-        <v>1512636.72</v>
+        <v>1440944.01</v>
       </c>
       <c r="H22" t="n">
-        <v>1492528.47</v>
+        <v>1440512.93</v>
       </c>
       <c r="I22" t="n">
-        <v>1492214.14</v>
+        <v>1440864.82</v>
       </c>
       <c r="J22" t="n">
-        <v>1472918.01</v>
+        <v>1440123.61</v>
       </c>
       <c r="K22" t="n">
-        <v>1472761.37</v>
+        <v>1440485.61</v>
       </c>
       <c r="L22" t="n">
-        <v>1472620.17</v>
+        <v>1440055.71</v>
       </c>
       <c r="M22" t="n">
-        <v>1472864.02</v>
+        <v>1440150.4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1440913.58</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1440971.58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1440883.83</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1440337.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1440139.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1440087.95</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1442054.39</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1440633.08</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1342702.8</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1342729.31</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1342626.88</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1342727</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1413852.59</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1389576.04</v>
       </c>
     </row>
     <row r="23">
@@ -1397,38 +2333,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>607563.26</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>627872.03</v>
+      </c>
+      <c r="C23" t="n">
+        <v>627633.85</v>
+      </c>
       <c r="D23" t="n">
-        <v>607680.1</v>
+        <v>634460.99</v>
       </c>
       <c r="E23" t="n">
-        <v>607953.55</v>
+        <v>627815.45</v>
       </c>
       <c r="F23" t="n">
-        <v>607923.11</v>
+        <v>627588.85</v>
       </c>
       <c r="G23" t="n">
-        <v>607632.45</v>
+        <v>659273.76</v>
       </c>
       <c r="H23" t="n">
-        <v>627584.9300000001</v>
+        <v>633809.02</v>
       </c>
       <c r="I23" t="n">
-        <v>627626.8100000001</v>
+        <v>633968.24</v>
       </c>
       <c r="J23" t="n">
-        <v>627532.85</v>
+        <v>633926.78</v>
       </c>
       <c r="K23" t="n">
-        <v>627578.52</v>
+        <v>634253.04</v>
       </c>
       <c r="L23" t="n">
-        <v>627767.3199999999</v>
+        <v>634001.27</v>
       </c>
       <c r="M23" t="n">
-        <v>627872.03</v>
+        <v>634249.9399999999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>634017.62</v>
+      </c>
+      <c r="O23" t="n">
+        <v>633972.91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>633955.52</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>634105.46</v>
+      </c>
+      <c r="R23" t="n">
+        <v>634035.21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>670566.12</v>
+      </c>
+      <c r="T23" t="n">
+        <v>671741.23</v>
+      </c>
+      <c r="U23" t="n">
+        <v>700803.26</v>
+      </c>
+      <c r="V23" t="n">
+        <v>656165.91</v>
+      </c>
+      <c r="W23" t="n">
+        <v>656116.29</v>
+      </c>
+      <c r="X23" t="n">
+        <v>655897.01</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>655934.28</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>744355.08</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>744442.41</v>
       </c>
     </row>
     <row r="24">
@@ -1438,38 +2418,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>164274.08</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>151694.65</v>
+      </c>
+      <c r="C24" t="n">
+        <v>151530.16</v>
+      </c>
       <c r="D24" t="n">
-        <v>151548.6</v>
+        <v>153216.87</v>
       </c>
       <c r="E24" t="n">
-        <v>151671.39</v>
+        <v>151594.83</v>
       </c>
       <c r="F24" t="n">
-        <v>151645.11</v>
+        <v>151513.29</v>
       </c>
       <c r="G24" t="n">
-        <v>151696.34</v>
+        <v>151669.74</v>
       </c>
       <c r="H24" t="n">
-        <v>151538.17</v>
+        <v>151577.12</v>
       </c>
       <c r="I24" t="n">
-        <v>151604.57</v>
+        <v>151624.23</v>
       </c>
       <c r="J24" t="n">
-        <v>151672.39</v>
+        <v>151596.54</v>
       </c>
       <c r="K24" t="n">
-        <v>151534.92</v>
+        <v>151522.23</v>
       </c>
       <c r="L24" t="n">
-        <v>151676.37</v>
+        <v>151667.09</v>
       </c>
       <c r="M24" t="n">
-        <v>151694.65</v>
+        <v>151518.55</v>
+      </c>
+      <c r="N24" t="n">
+        <v>151703.94</v>
+      </c>
+      <c r="O24" t="n">
+        <v>151666.28</v>
+      </c>
+      <c r="P24" t="n">
+        <v>151582.19</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>151701.09</v>
+      </c>
+      <c r="R24" t="n">
+        <v>151569.36</v>
+      </c>
+      <c r="S24" t="n">
+        <v>151666.19</v>
+      </c>
+      <c r="T24" t="n">
+        <v>151661.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>182648.16</v>
+      </c>
+      <c r="V24" t="n">
+        <v>186413.14</v>
+      </c>
+      <c r="W24" t="n">
+        <v>186295.54</v>
+      </c>
+      <c r="X24" t="n">
+        <v>186436.95</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>160193.53</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>160333.2</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>160282.74</v>
       </c>
     </row>
     <row r="25">
@@ -1479,38 +2503,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6907.31</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>6907.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6903.23</v>
+      </c>
       <c r="D25" t="n">
-        <v>6904</v>
+        <v>6981.37</v>
       </c>
       <c r="E25" t="n">
-        <v>6906.21</v>
+        <v>6907.49</v>
       </c>
       <c r="F25" t="n">
-        <v>6908.47</v>
+        <v>6904.36</v>
       </c>
       <c r="G25" t="n">
-        <v>6903.17</v>
+        <v>6908.66</v>
       </c>
       <c r="H25" t="n">
-        <v>6903.92</v>
+        <v>6908.43</v>
       </c>
       <c r="I25" t="n">
-        <v>6906.81</v>
+        <v>6910.23</v>
       </c>
       <c r="J25" t="n">
-        <v>6908.38</v>
+        <v>6909.56</v>
       </c>
       <c r="K25" t="n">
-        <v>6911.21</v>
+        <v>6908.34</v>
       </c>
       <c r="L25" t="n">
-        <v>6909.77</v>
+        <v>6912.86</v>
       </c>
       <c r="M25" t="n">
-        <v>6907.2</v>
+        <v>6909.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6909.79</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6908.95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6909.3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>6905.76</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6910.42</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6909.93</v>
+      </c>
+      <c r="T25" t="n">
+        <v>6910.83</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6908.77</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6909.85</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6911.62</v>
+      </c>
+      <c r="X25" t="n">
+        <v>6911.51</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>6904.99</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>6903.6</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6906.61</v>
       </c>
     </row>
     <row r="26">
@@ -1520,38 +2588,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6248.52</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>6244.09</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6250.62</v>
+      </c>
       <c r="D26" t="n">
-        <v>6255.08</v>
+        <v>6321.13</v>
       </c>
       <c r="E26" t="n">
-        <v>6258.19</v>
+        <v>6245.12</v>
       </c>
       <c r="F26" t="n">
-        <v>6246.3</v>
+        <v>6248.6</v>
       </c>
       <c r="G26" t="n">
-        <v>6258.23</v>
+        <v>6251.57</v>
       </c>
       <c r="H26" t="n">
-        <v>6247.49</v>
+        <v>6254.28</v>
       </c>
       <c r="I26" t="n">
-        <v>6248.76</v>
+        <v>6251.74</v>
       </c>
       <c r="J26" t="n">
-        <v>6258.77</v>
+        <v>6252.62</v>
       </c>
       <c r="K26" t="n">
-        <v>6250.9</v>
+        <v>6255.94</v>
       </c>
       <c r="L26" t="n">
-        <v>6244.11</v>
+        <v>6249.03</v>
       </c>
       <c r="M26" t="n">
-        <v>6244.09</v>
+        <v>6244.75</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6251.58</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6256.18</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6258.21</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6250.66</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6252.52</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6258.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6253.6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>6255.01</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6248.45</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6257.57</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6244.23</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>6244.93</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>6248.84</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6253.93</v>
       </c>
     </row>
     <row r="27">
@@ -1561,38 +2673,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>845439.2</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>682475.49</v>
+      </c>
+      <c r="C27" t="n">
+        <v>682480.24</v>
+      </c>
       <c r="D27" t="n">
-        <v>800937.97</v>
+        <v>690462.35</v>
       </c>
       <c r="E27" t="n">
-        <v>771847.49</v>
+        <v>682740.3199999999</v>
       </c>
       <c r="F27" t="n">
-        <v>737210.35</v>
+        <v>682774.08</v>
       </c>
       <c r="G27" t="n">
-        <v>705944.9</v>
+        <v>682877.0699999999</v>
       </c>
       <c r="H27" t="n">
-        <v>705888.6899999999</v>
+        <v>682615.52</v>
       </c>
       <c r="I27" t="n">
-        <v>705435.47</v>
+        <v>682498.5600000001</v>
       </c>
       <c r="J27" t="n">
-        <v>705546.4399999999</v>
+        <v>682445.4399999999</v>
       </c>
       <c r="K27" t="n">
-        <v>705471.24</v>
+        <v>689558.45</v>
       </c>
       <c r="L27" t="n">
-        <v>682699.79</v>
+        <v>728942.39</v>
       </c>
       <c r="M27" t="n">
-        <v>682475.49</v>
+        <v>728864.22</v>
+      </c>
+      <c r="N27" t="n">
+        <v>728824.63</v>
+      </c>
+      <c r="O27" t="n">
+        <v>728730.34</v>
+      </c>
+      <c r="P27" t="n">
+        <v>729246.05</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>729110.24</v>
+      </c>
+      <c r="R27" t="n">
+        <v>728878.55</v>
+      </c>
+      <c r="S27" t="n">
+        <v>728983.84</v>
+      </c>
+      <c r="T27" t="n">
+        <v>729112.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>782567.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>782539.7</v>
+      </c>
+      <c r="W27" t="n">
+        <v>782475.35</v>
+      </c>
+      <c r="X27" t="n">
+        <v>782594.76</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>782188.8100000001</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>782531.05</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>782546.42</v>
       </c>
     </row>
     <row r="28">
@@ -1602,38 +2758,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1169260.18</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>1013276.58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1013338.77</v>
+      </c>
       <c r="D28" t="n">
-        <v>1100227.2</v>
+        <v>1024672.22</v>
       </c>
       <c r="E28" t="n">
-        <v>1070691.16</v>
+        <v>1013718.81</v>
       </c>
       <c r="F28" t="n">
-        <v>1054364.74</v>
+        <v>1013338.27</v>
       </c>
       <c r="G28" t="n">
-        <v>1013384.76</v>
+        <v>1075231.88</v>
       </c>
       <c r="H28" t="n">
-        <v>1013891.46</v>
+        <v>1075238.47</v>
       </c>
       <c r="I28" t="n">
-        <v>1013598.47</v>
+        <v>1074357.24</v>
       </c>
       <c r="J28" t="n">
-        <v>1013057.85</v>
+        <v>1074535.21</v>
       </c>
       <c r="K28" t="n">
-        <v>1013624.09</v>
+        <v>1074407.15</v>
       </c>
       <c r="L28" t="n">
-        <v>1013829.72</v>
+        <v>1074959.25</v>
       </c>
       <c r="M28" t="n">
-        <v>1013276.58</v>
+        <v>1075111.37</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1074257.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1074381.09</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1074605.08</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1074475.93</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1075219.13</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1075120.16</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1075034.94</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1122762.59</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1134591.83</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1134199.92</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1134589.15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1135032.58</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1134981.81</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1134972.57</v>
       </c>
     </row>
     <row r="29">
@@ -1643,38 +2843,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>318428.81</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>287429.64</v>
+      </c>
+      <c r="C29" t="n">
+        <v>286939.32</v>
+      </c>
       <c r="D29" t="n">
-        <v>318659.21</v>
+        <v>289849.61</v>
       </c>
       <c r="E29" t="n">
-        <v>318491.09</v>
+        <v>203898.39</v>
       </c>
       <c r="F29" t="n">
-        <v>318051.45</v>
+        <v>203752.93</v>
       </c>
       <c r="G29" t="n">
-        <v>286385.33</v>
+        <v>204080.72</v>
       </c>
       <c r="H29" t="n">
-        <v>287250.4</v>
+        <v>204315.89</v>
       </c>
       <c r="I29" t="n">
-        <v>287027.31</v>
+        <v>203927.37</v>
       </c>
       <c r="J29" t="n">
-        <v>287388.1</v>
+        <v>203764.09</v>
       </c>
       <c r="K29" t="n">
-        <v>286729.99</v>
+        <v>203847.57</v>
       </c>
       <c r="L29" t="n">
-        <v>286712.95</v>
+        <v>204011.99</v>
       </c>
       <c r="M29" t="n">
-        <v>287429.64</v>
+        <v>204183.55</v>
+      </c>
+      <c r="N29" t="n">
+        <v>164041.92</v>
+      </c>
+      <c r="O29" t="n">
+        <v>163896.48</v>
+      </c>
+      <c r="P29" t="n">
+        <v>164141.03</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>163739.9</v>
+      </c>
+      <c r="R29" t="n">
+        <v>163872.93</v>
+      </c>
+      <c r="S29" t="n">
+        <v>164164.05</v>
+      </c>
+      <c r="T29" t="n">
+        <v>164274.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>164043.82</v>
+      </c>
+      <c r="V29" t="n">
+        <v>164280.43</v>
+      </c>
+      <c r="W29" t="n">
+        <v>163959.42</v>
+      </c>
+      <c r="X29" t="n">
+        <v>164029.75</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>163837.09</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>163850.35</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>163927.61</v>
       </c>
     </row>
     <row r="30">
@@ -1684,38 +2928,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>647904.5699999999</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>652194.34</v>
+      </c>
+      <c r="C30" t="n">
+        <v>653555.89</v>
+      </c>
       <c r="D30" t="n">
-        <v>624494.92</v>
+        <v>670194.1899999999</v>
       </c>
       <c r="E30" t="n">
-        <v>688761.61</v>
+        <v>662697.88</v>
       </c>
       <c r="F30" t="n">
-        <v>709433.75</v>
+        <v>689405.5699999999</v>
       </c>
       <c r="G30" t="n">
-        <v>698466.09</v>
+        <v>708059.8</v>
       </c>
       <c r="H30" t="n">
-        <v>711173.26</v>
+        <v>724765.46</v>
       </c>
       <c r="I30" t="n">
-        <v>686847.39</v>
+        <v>779451.89</v>
       </c>
       <c r="J30" t="n">
-        <v>679468.98</v>
+        <v>782541.92</v>
       </c>
       <c r="K30" t="n">
-        <v>659864.39</v>
+        <v>795331.12</v>
       </c>
       <c r="L30" t="n">
-        <v>651959.03</v>
+        <v>784628.09</v>
       </c>
       <c r="M30" t="n">
-        <v>652194.34</v>
+        <v>791671.47</v>
+      </c>
+      <c r="N30" t="n">
+        <v>790377.99</v>
+      </c>
+      <c r="O30" t="n">
+        <v>816276.12</v>
+      </c>
+      <c r="P30" t="n">
+        <v>848794.46</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>928353.2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1078340.99</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1074648.33</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1016300.55</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1023396.92</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1107966.24</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1146538.85</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1208503.83</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1113848.89</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1146648.36</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1032979.62</v>
       </c>
     </row>
     <row r="31">
@@ -1725,38 +3013,82 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638404.61</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>613243.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>613510.23</v>
+      </c>
       <c r="D31" t="n">
-        <v>640094.26</v>
+        <v>619920.15</v>
       </c>
       <c r="E31" t="n">
-        <v>653450.13</v>
+        <v>616482.11</v>
       </c>
       <c r="F31" t="n">
-        <v>654065.45</v>
+        <v>648715.51</v>
       </c>
       <c r="G31" t="n">
-        <v>643465.76</v>
+        <v>661734.8199999999</v>
       </c>
       <c r="H31" t="n">
-        <v>649685.87</v>
+        <v>678922.42</v>
       </c>
       <c r="I31" t="n">
-        <v>649741.05</v>
+        <v>719850.8</v>
       </c>
       <c r="J31" t="n">
-        <v>634694.8100000001</v>
+        <v>760706.84</v>
       </c>
       <c r="K31" t="n">
-        <v>634165.6800000001</v>
+        <v>766231.3</v>
       </c>
       <c r="L31" t="n">
-        <v>613174.39</v>
+        <v>779584.36</v>
       </c>
       <c r="M31" t="n">
-        <v>613243.8</v>
+        <v>791088.88</v>
+      </c>
+      <c r="N31" t="n">
+        <v>797761.64</v>
+      </c>
+      <c r="O31" t="n">
+        <v>808362.87</v>
+      </c>
+      <c r="P31" t="n">
+        <v>845640.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>920708.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1020461.03</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1009305.83</v>
+      </c>
+      <c r="T31" t="n">
+        <v>975311.11</v>
+      </c>
+      <c r="U31" t="n">
+        <v>961189.59</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1012017.64</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1064081.22</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1084475.07</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1022773.09</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1078153.27</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1014456.1</v>
       </c>
     </row>
     <row r="32">
@@ -1766,38 +3098,82 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1055118.95</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>983822.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>984048.83</v>
+      </c>
       <c r="D32" t="n">
-        <v>934449.47</v>
+        <v>994296.96</v>
       </c>
       <c r="E32" t="n">
-        <v>1058919.2</v>
+        <v>1086688.1</v>
       </c>
       <c r="F32" t="n">
-        <v>1053108.31</v>
+        <v>1157830.82</v>
       </c>
       <c r="G32" t="n">
-        <v>1067700.1</v>
+        <v>1201052.11</v>
       </c>
       <c r="H32" t="n">
-        <v>1068100.63</v>
+        <v>1181234.55</v>
       </c>
       <c r="I32" t="n">
-        <v>1057203.84</v>
+        <v>1344434.42</v>
       </c>
       <c r="J32" t="n">
-        <v>1031539.19</v>
+        <v>1397789.13</v>
       </c>
       <c r="K32" t="n">
-        <v>1031153.87</v>
+        <v>1435828.27</v>
       </c>
       <c r="L32" t="n">
-        <v>1008188.12</v>
+        <v>1485216.03</v>
       </c>
       <c r="M32" t="n">
-        <v>983822.7</v>
+        <v>1599870.6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1684780.93</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1737127.8</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1667741.88</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1777330.81</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1842327.17</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1742350.97</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1711793.67</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1761772.61</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1877573</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1967189.75</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2058434.41</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1905825.74</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1940197.19</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1785574.05</v>
       </c>
     </row>
     <row r="33">
@@ -1807,40 +3183,82 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>694045.97</v>
+        <v>714232.8199999999</v>
       </c>
       <c r="C33" t="n">
-        <v>632766.52</v>
+        <v>704315.55</v>
       </c>
       <c r="D33" t="n">
-        <v>653262.5699999999</v>
+        <v>709699.46</v>
       </c>
       <c r="E33" t="n">
-        <v>695933.3</v>
+        <v>666904.9300000001</v>
       </c>
       <c r="F33" t="n">
-        <v>700993.46</v>
+        <v>676908.3100000001</v>
       </c>
       <c r="G33" t="n">
-        <v>711091.0699999999</v>
+        <v>668700.42</v>
       </c>
       <c r="H33" t="n">
-        <v>711196.79</v>
+        <v>669118.0699999999</v>
       </c>
       <c r="I33" t="n">
-        <v>710690.1</v>
+        <v>769945.65</v>
       </c>
       <c r="J33" t="n">
-        <v>711297.55</v>
+        <v>787927.37</v>
       </c>
       <c r="K33" t="n">
-        <v>711194.5</v>
+        <v>787833.1</v>
       </c>
       <c r="L33" t="n">
-        <v>710675.75</v>
+        <v>833083.4</v>
       </c>
       <c r="M33" t="n">
-        <v>714232.8199999999</v>
+        <v>835084.1800000001</v>
+      </c>
+      <c r="N33" t="n">
+        <v>829684.34</v>
+      </c>
+      <c r="O33" t="n">
+        <v>880228.78</v>
+      </c>
+      <c r="P33" t="n">
+        <v>895795.54</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>962359.3199999999</v>
+      </c>
+      <c r="R33" t="n">
+        <v>994693</v>
+      </c>
+      <c r="S33" t="n">
+        <v>984144.72</v>
+      </c>
+      <c r="T33" t="n">
+        <v>981162.29</v>
+      </c>
+      <c r="U33" t="n">
+        <v>980892.59</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1011888.03</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1074042.03</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1099525.72</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1057730.13</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1060523.55</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1046211.62</v>
       </c>
     </row>
     <row r="34">
@@ -1850,40 +3268,82 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>298166.4</v>
+        <v>347828.43</v>
       </c>
       <c r="C34" t="n">
-        <v>298315.05</v>
+        <v>347910.45</v>
       </c>
       <c r="D34" t="n">
-        <v>248123.12</v>
+        <v>351752.26</v>
       </c>
       <c r="E34" t="n">
-        <v>248099.63</v>
+        <v>347888.28</v>
       </c>
       <c r="F34" t="n">
-        <v>248223.46</v>
+        <v>347852.78</v>
       </c>
       <c r="G34" t="n">
-        <v>248122.17</v>
+        <v>347752.73</v>
       </c>
       <c r="H34" t="n">
-        <v>347792.69</v>
+        <v>347905.94</v>
       </c>
       <c r="I34" t="n">
-        <v>347867.91</v>
+        <v>347751.5</v>
       </c>
       <c r="J34" t="n">
-        <v>347807.59</v>
+        <v>347793.26</v>
       </c>
       <c r="K34" t="n">
-        <v>347873.96</v>
+        <v>347701.56</v>
       </c>
       <c r="L34" t="n">
-        <v>347813.35</v>
+        <v>347880.6</v>
       </c>
       <c r="M34" t="n">
-        <v>347828.43</v>
+        <v>347873.49</v>
+      </c>
+      <c r="N34" t="n">
+        <v>347815.82</v>
+      </c>
+      <c r="O34" t="n">
+        <v>347810.1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>347706.97</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>334687.84</v>
+      </c>
+      <c r="R34" t="n">
+        <v>334758.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>334635.81</v>
+      </c>
+      <c r="T34" t="n">
+        <v>334719.16</v>
+      </c>
+      <c r="U34" t="n">
+        <v>334670.76</v>
+      </c>
+      <c r="V34" t="n">
+        <v>334682.59</v>
+      </c>
+      <c r="W34" t="n">
+        <v>334657.45</v>
+      </c>
+      <c r="X34" t="n">
+        <v>334837.9</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>334808.66</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>326781.48</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>326795.97</v>
       </c>
     </row>
     <row r="35">
@@ -1893,40 +3353,82 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3776352.36</v>
+        <v>3800940.53</v>
       </c>
       <c r="C35" t="n">
-        <v>3800311.45</v>
+        <v>3798887.98</v>
       </c>
       <c r="D35" t="n">
-        <v>3801459.71</v>
+        <v>3843328.11</v>
       </c>
       <c r="E35" t="n">
-        <v>3799245.9</v>
+        <v>3799321.28</v>
       </c>
       <c r="F35" t="n">
-        <v>3799225.2</v>
+        <v>3599526.43</v>
       </c>
       <c r="G35" t="n">
-        <v>3799362.07</v>
+        <v>3600655.82</v>
       </c>
       <c r="H35" t="n">
-        <v>3800336.57</v>
+        <v>3601386.95</v>
       </c>
       <c r="I35" t="n">
-        <v>3800094.04</v>
+        <v>3600339.11</v>
       </c>
       <c r="J35" t="n">
-        <v>3798763.38</v>
+        <v>3600774.63</v>
       </c>
       <c r="K35" t="n">
-        <v>3800435.33</v>
+        <v>3600815.52</v>
       </c>
       <c r="L35" t="n">
-        <v>3800854.78</v>
+        <v>3598950.24</v>
       </c>
       <c r="M35" t="n">
-        <v>3800940.53</v>
+        <v>3999929.96</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4399483.29</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4400829.62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4400005.95</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4299979.78</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4299849.21</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4301373.44</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4198949.72</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3799080.94</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3599569.73</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3600839.42</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3599870.32</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3599646.71</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3599329</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3525521.49</v>
       </c>
     </row>
     <row r="36">
@@ -1936,40 +3438,82 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>92432.95</v>
+        <v>85409.82000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>92453.92</v>
+        <v>85491.99000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>85416.59</v>
+        <v>86385.2</v>
       </c>
       <c r="E36" t="n">
-        <v>85492.61</v>
+        <v>85422.71000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>85435.97</v>
+        <v>85495.96000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>85417.35000000001</v>
+        <v>85410.46000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>85492.27</v>
+        <v>85470.83</v>
       </c>
       <c r="I36" t="n">
-        <v>85463.21000000001</v>
+        <v>85484.28999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>85487.35000000001</v>
+        <v>85501.38</v>
       </c>
       <c r="K36" t="n">
-        <v>85466.05</v>
+        <v>85412.17</v>
       </c>
       <c r="L36" t="n">
-        <v>85448.3</v>
+        <v>105504.42</v>
       </c>
       <c r="M36" t="n">
-        <v>85409.82000000001</v>
+        <v>130429.67</v>
+      </c>
+      <c r="N36" t="n">
+        <v>130458.41</v>
+      </c>
+      <c r="O36" t="n">
+        <v>130479.6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>130455.34</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>130484.75</v>
+      </c>
+      <c r="R36" t="n">
+        <v>130403.13</v>
+      </c>
+      <c r="S36" t="n">
+        <v>130484.15</v>
+      </c>
+      <c r="T36" t="n">
+        <v>130461.72</v>
+      </c>
+      <c r="U36" t="n">
+        <v>130505.17</v>
+      </c>
+      <c r="V36" t="n">
+        <v>130425.36</v>
+      </c>
+      <c r="W36" t="n">
+        <v>145475.08</v>
+      </c>
+      <c r="X36" t="n">
+        <v>155455.41</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>180495.14</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>160466.57</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>151405.85</v>
       </c>
     </row>
     <row r="37">
@@ -1979,40 +3523,82 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20703.83</v>
+        <v>20709.15</v>
       </c>
       <c r="C37" t="n">
-        <v>20696.69</v>
+        <v>20712.26</v>
       </c>
       <c r="D37" t="n">
-        <v>20698.73</v>
+        <v>20922.66</v>
       </c>
       <c r="E37" t="n">
-        <v>20710.66</v>
+        <v>20702.62</v>
       </c>
       <c r="F37" t="n">
-        <v>20707.07</v>
+        <v>20708.94</v>
       </c>
       <c r="G37" t="n">
-        <v>20692.36</v>
+        <v>20712.52</v>
       </c>
       <c r="H37" t="n">
+        <v>20692.22</v>
+      </c>
+      <c r="I37" t="n">
+        <v>20690.42</v>
+      </c>
+      <c r="J37" t="n">
+        <v>20706.48</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20696.24</v>
+      </c>
+      <c r="L37" t="n">
+        <v>20698.96</v>
+      </c>
+      <c r="M37" t="n">
+        <v>20697.38</v>
+      </c>
+      <c r="N37" t="n">
+        <v>20708.99</v>
+      </c>
+      <c r="O37" t="n">
         <v>20701.82</v>
       </c>
-      <c r="I37" t="n">
-        <v>20703.95</v>
-      </c>
-      <c r="J37" t="n">
-        <v>20686.17</v>
-      </c>
-      <c r="K37" t="n">
-        <v>20690.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>20686.63</v>
-      </c>
-      <c r="M37" t="n">
-        <v>20709.15</v>
+      <c r="P37" t="n">
+        <v>20686.26</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>20694.55</v>
+      </c>
+      <c r="R37" t="n">
+        <v>20691.71</v>
+      </c>
+      <c r="S37" t="n">
+        <v>20685.17</v>
+      </c>
+      <c r="T37" t="n">
+        <v>20689.68</v>
+      </c>
+      <c r="U37" t="n">
+        <v>20688.88</v>
+      </c>
+      <c r="V37" t="n">
+        <v>20706.26</v>
+      </c>
+      <c r="W37" t="n">
+        <v>22202.64</v>
+      </c>
+      <c r="X37" t="n">
+        <v>22191.33</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>22190.79</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>22185.9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>22209.45</v>
       </c>
     </row>
     <row r="38">
@@ -2022,40 +3608,82 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>413382.91</v>
+        <v>302551.86</v>
       </c>
       <c r="C38" t="n">
-        <v>403666.15</v>
+        <v>292448.2</v>
       </c>
       <c r="D38" t="n">
-        <v>395690.89</v>
+        <v>295713.79</v>
       </c>
       <c r="E38" t="n">
-        <v>405514.97</v>
+        <v>297640.16</v>
       </c>
       <c r="F38" t="n">
-        <v>395710.36</v>
+        <v>297584.06</v>
       </c>
       <c r="G38" t="n">
-        <v>380463.68</v>
+        <v>277572.96</v>
       </c>
       <c r="H38" t="n">
-        <v>390619.31</v>
+        <v>277535.39</v>
       </c>
       <c r="I38" t="n">
-        <v>342489.03</v>
+        <v>287510.26</v>
       </c>
       <c r="J38" t="n">
-        <v>332454.82</v>
+        <v>297508.75</v>
       </c>
       <c r="K38" t="n">
-        <v>322552.69</v>
+        <v>297557.25</v>
       </c>
       <c r="L38" t="n">
-        <v>302491.15</v>
+        <v>327591.61</v>
       </c>
       <c r="M38" t="n">
-        <v>302551.86</v>
+        <v>327665.17</v>
+      </c>
+      <c r="N38" t="n">
+        <v>347447.7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>347498.36</v>
+      </c>
+      <c r="P38" t="n">
+        <v>347513.71</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>347633.45</v>
+      </c>
+      <c r="R38" t="n">
+        <v>347611.83</v>
+      </c>
+      <c r="S38" t="n">
+        <v>347620.94</v>
+      </c>
+      <c r="T38" t="n">
+        <v>347474.94</v>
+      </c>
+      <c r="U38" t="n">
+        <v>342578.23</v>
+      </c>
+      <c r="V38" t="n">
+        <v>355492.49</v>
+      </c>
+      <c r="W38" t="n">
+        <v>365502.99</v>
+      </c>
+      <c r="X38" t="n">
+        <v>395414.95</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>405658.73</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>405486.22</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>420533.81</v>
       </c>
     </row>
     <row r="39">
@@ -2065,40 +3693,82 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>739484.97</v>
+        <v>532572.6800000001</v>
       </c>
       <c r="C39" t="n">
-        <v>744958.36</v>
+        <v>512529.26</v>
       </c>
       <c r="D39" t="n">
-        <v>633216.15</v>
+        <v>518688.19</v>
       </c>
       <c r="E39" t="n">
-        <v>613317</v>
+        <v>512936.64</v>
       </c>
       <c r="F39" t="n">
-        <v>613237.85</v>
+        <v>517867.26</v>
       </c>
       <c r="G39" t="n">
-        <v>613092.86</v>
+        <v>547745.63</v>
       </c>
       <c r="H39" t="n">
-        <v>618233.86</v>
+        <v>547815.6899999999</v>
       </c>
       <c r="I39" t="n">
-        <v>603348.1899999999</v>
+        <v>562664.26</v>
       </c>
       <c r="J39" t="n">
-        <v>577933.14</v>
+        <v>567807.8100000001</v>
       </c>
       <c r="K39" t="n">
-        <v>567828.09</v>
+        <v>567787.36</v>
       </c>
       <c r="L39" t="n">
-        <v>537678.86</v>
+        <v>577586.08</v>
       </c>
       <c r="M39" t="n">
-        <v>532572.6800000001</v>
+        <v>582623.62</v>
+      </c>
+      <c r="N39" t="n">
+        <v>637693.24</v>
+      </c>
+      <c r="O39" t="n">
+        <v>637858.62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>637687.3199999999</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>637518.51</v>
+      </c>
+      <c r="R39" t="n">
+        <v>637582.2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>637802.28</v>
+      </c>
+      <c r="T39" t="n">
+        <v>647715.8199999999</v>
+      </c>
+      <c r="U39" t="n">
+        <v>657568.17</v>
+      </c>
+      <c r="V39" t="n">
+        <v>692749.33</v>
+      </c>
+      <c r="W39" t="n">
+        <v>692841</v>
+      </c>
+      <c r="X39" t="n">
+        <v>702696.42</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>697690.03</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>707567.63</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>712770.77</v>
       </c>
     </row>
     <row r="40">
@@ -2108,40 +3778,82 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126595.33</v>
+        <v>183533.31</v>
       </c>
       <c r="C40" t="n">
-        <v>132610.88</v>
+        <v>183586.77</v>
       </c>
       <c r="D40" t="n">
-        <v>170175.16</v>
+        <v>180370.76</v>
       </c>
       <c r="E40" t="n">
-        <v>178274.21</v>
+        <v>176556.97</v>
       </c>
       <c r="F40" t="n">
-        <v>176520.74</v>
+        <v>179776.15</v>
       </c>
       <c r="G40" t="n">
-        <v>176586.95</v>
+        <v>190742.98</v>
       </c>
       <c r="H40" t="n">
-        <v>209802.13</v>
+        <v>196320.11</v>
       </c>
       <c r="I40" t="n">
-        <v>209779.86</v>
+        <v>203038.08</v>
       </c>
       <c r="J40" t="n">
-        <v>209783.39</v>
+        <v>206518.07</v>
       </c>
       <c r="K40" t="n">
-        <v>209753.29</v>
+        <v>217013.67</v>
       </c>
       <c r="L40" t="n">
-        <v>208215.4</v>
+        <v>216894.21</v>
       </c>
       <c r="M40" t="n">
-        <v>183533.31</v>
+        <v>252220.02</v>
+      </c>
+      <c r="N40" t="n">
+        <v>252167.29</v>
+      </c>
+      <c r="O40" t="n">
+        <v>258461.92</v>
+      </c>
+      <c r="P40" t="n">
+        <v>264893.28</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>264921.92</v>
+      </c>
+      <c r="R40" t="n">
+        <v>264961.85</v>
+      </c>
+      <c r="S40" t="n">
+        <v>264816.32</v>
+      </c>
+      <c r="T40" t="n">
+        <v>226565.87</v>
+      </c>
+      <c r="U40" t="n">
+        <v>230128.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>225041.64</v>
+      </c>
+      <c r="W40" t="n">
+        <v>220227.7</v>
+      </c>
+      <c r="X40" t="n">
+        <v>228954.33</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>206684.34</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>225715.29</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>225759.41</v>
       </c>
     </row>
     <row r="41">
@@ -2151,40 +3863,82 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18153.67</v>
+        <v>20519.43</v>
       </c>
       <c r="C41" t="n">
-        <v>18141.81</v>
+        <v>19330.36</v>
       </c>
       <c r="D41" t="n">
-        <v>20521.79</v>
+        <v>19543.79</v>
       </c>
       <c r="E41" t="n">
-        <v>20512.9</v>
+        <v>19326.21</v>
       </c>
       <c r="F41" t="n">
-        <v>20518.15</v>
+        <v>19318.41</v>
       </c>
       <c r="G41" t="n">
-        <v>20518.36</v>
+        <v>19321.78</v>
       </c>
       <c r="H41" t="n">
-        <v>20522.96</v>
+        <v>19330.11</v>
       </c>
       <c r="I41" t="n">
-        <v>20511.58</v>
+        <v>19331.15</v>
       </c>
       <c r="J41" t="n">
-        <v>20524.04</v>
+        <v>19330.46</v>
       </c>
       <c r="K41" t="n">
-        <v>20523.77</v>
+        <v>19328.11</v>
       </c>
       <c r="L41" t="n">
-        <v>20526.5</v>
+        <v>19326.13</v>
       </c>
       <c r="M41" t="n">
-        <v>20519.43</v>
+        <v>19326.82</v>
+      </c>
+      <c r="N41" t="n">
+        <v>19319.31</v>
+      </c>
+      <c r="O41" t="n">
+        <v>19325.47</v>
+      </c>
+      <c r="P41" t="n">
+        <v>19324.86</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>19330.79</v>
+      </c>
+      <c r="R41" t="n">
+        <v>19326.33</v>
+      </c>
+      <c r="S41" t="n">
+        <v>19317.73</v>
+      </c>
+      <c r="T41" t="n">
+        <v>19346.83</v>
+      </c>
+      <c r="U41" t="n">
+        <v>19326.77</v>
+      </c>
+      <c r="V41" t="n">
+        <v>19329.86</v>
+      </c>
+      <c r="W41" t="n">
+        <v>19329.16</v>
+      </c>
+      <c r="X41" t="n">
+        <v>18280.01</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>18270.32</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>18268.72</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>18278.66</v>
       </c>
     </row>
     <row r="42">
@@ -2194,40 +3948,82 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108967.3</v>
+        <v>138066.45</v>
       </c>
       <c r="C42" t="n">
-        <v>120003.84</v>
+        <v>136025.68</v>
       </c>
       <c r="D42" t="n">
-        <v>132066.57</v>
+        <v>137517.87</v>
       </c>
       <c r="E42" t="n">
-        <v>144005.33</v>
+        <v>135981.92</v>
       </c>
       <c r="F42" t="n">
-        <v>144040.14</v>
+        <v>136035.93</v>
       </c>
       <c r="G42" t="n">
-        <v>143980.31</v>
+        <v>143935.55</v>
       </c>
       <c r="H42" t="n">
-        <v>143985.93</v>
+        <v>144028.89</v>
       </c>
       <c r="I42" t="n">
-        <v>148050.46</v>
+        <v>143975.3</v>
       </c>
       <c r="J42" t="n">
-        <v>149932.79</v>
+        <v>140950.43</v>
       </c>
       <c r="K42" t="n">
-        <v>141494.52</v>
+        <v>141055.29</v>
       </c>
       <c r="L42" t="n">
-        <v>137849.05</v>
+        <v>149935.45</v>
       </c>
       <c r="M42" t="n">
-        <v>138066.45</v>
+        <v>185930.87</v>
+      </c>
+      <c r="N42" t="n">
+        <v>172455.74</v>
+      </c>
+      <c r="O42" t="n">
+        <v>172507.76</v>
+      </c>
+      <c r="P42" t="n">
+        <v>172447.22</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>195338.24</v>
+      </c>
+      <c r="R42" t="n">
+        <v>195472.52</v>
+      </c>
+      <c r="S42" t="n">
+        <v>201870.15</v>
+      </c>
+      <c r="T42" t="n">
+        <v>198607.17</v>
+      </c>
+      <c r="U42" t="n">
+        <v>192626.68</v>
+      </c>
+      <c r="V42" t="n">
+        <v>196435.65</v>
+      </c>
+      <c r="W42" t="n">
+        <v>201367.69</v>
+      </c>
+      <c r="X42" t="n">
+        <v>204106.85</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>203067.73</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>201459.65</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>193159.27</v>
       </c>
     </row>
     <row r="43">
@@ -2237,40 +4033,82 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126857.86</v>
+        <v>155934.97</v>
       </c>
       <c r="C43" t="n">
-        <v>126840.84</v>
+        <v>155833.95</v>
       </c>
       <c r="D43" t="n">
-        <v>126896.24</v>
+        <v>157590.24</v>
       </c>
       <c r="E43" t="n">
-        <v>155908.99</v>
+        <v>155928.81</v>
       </c>
       <c r="F43" t="n">
-        <v>155938.35</v>
+        <v>155889.07</v>
       </c>
       <c r="G43" t="n">
-        <v>155829.78</v>
+        <v>155932.87</v>
       </c>
       <c r="H43" t="n">
-        <v>155880.71</v>
+        <v>155926.87</v>
       </c>
       <c r="I43" t="n">
-        <v>155921.44</v>
+        <v>155868.12</v>
       </c>
       <c r="J43" t="n">
-        <v>155832.87</v>
+        <v>155830.81</v>
       </c>
       <c r="K43" t="n">
-        <v>155938.5</v>
+        <v>155836.79</v>
       </c>
       <c r="L43" t="n">
-        <v>155865.64</v>
+        <v>155865.39</v>
       </c>
       <c r="M43" t="n">
-        <v>155934.97</v>
+        <v>155908.07</v>
+      </c>
+      <c r="N43" t="n">
+        <v>155931.57</v>
+      </c>
+      <c r="O43" t="n">
+        <v>155831.68</v>
+      </c>
+      <c r="P43" t="n">
+        <v>140919.08</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>148870.79</v>
+      </c>
+      <c r="R43" t="n">
+        <v>148842.57</v>
+      </c>
+      <c r="S43" t="n">
+        <v>148816.65</v>
+      </c>
+      <c r="T43" t="n">
+        <v>148896.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>148932.47</v>
+      </c>
+      <c r="V43" t="n">
+        <v>148915.38</v>
+      </c>
+      <c r="W43" t="n">
+        <v>148852.64</v>
+      </c>
+      <c r="X43" t="n">
+        <v>148894.51</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>148899.68</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>148912.71</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>148920.17</v>
       </c>
     </row>
     <row r="44">
@@ -2280,40 +4118,82 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>113087.21</v>
+        <v>116260.67</v>
       </c>
       <c r="C44" t="n">
-        <v>113135.83</v>
+        <v>116293.5</v>
       </c>
       <c r="D44" t="n">
-        <v>82595.17999999999</v>
+        <v>117609</v>
       </c>
       <c r="E44" t="n">
-        <v>100454.48</v>
+        <v>120864.38</v>
       </c>
       <c r="F44" t="n">
-        <v>100489.43</v>
+        <v>120858.42</v>
       </c>
       <c r="G44" t="n">
-        <v>116241.01</v>
+        <v>120857.5</v>
       </c>
       <c r="H44" t="n">
-        <v>116280.66</v>
+        <v>120902.46</v>
       </c>
       <c r="I44" t="n">
-        <v>116331.59</v>
+        <v>126426.01</v>
       </c>
       <c r="J44" t="n">
-        <v>116312.15</v>
+        <v>126370.87</v>
       </c>
       <c r="K44" t="n">
-        <v>116340.98</v>
+        <v>126400.83</v>
       </c>
       <c r="L44" t="n">
-        <v>116340.34</v>
+        <v>126418.97</v>
       </c>
       <c r="M44" t="n">
-        <v>116260.67</v>
+        <v>126407.98</v>
+      </c>
+      <c r="N44" t="n">
+        <v>117284.35</v>
+      </c>
+      <c r="O44" t="n">
+        <v>117269.87</v>
+      </c>
+      <c r="P44" t="n">
+        <v>117337.98</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>117314.25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>117336.24</v>
+      </c>
+      <c r="S44" t="n">
+        <v>117247.91</v>
+      </c>
+      <c r="T44" t="n">
+        <v>117256.29</v>
+      </c>
+      <c r="U44" t="n">
+        <v>117256.29</v>
+      </c>
+      <c r="V44" t="n">
+        <v>117307.57</v>
+      </c>
+      <c r="W44" t="n">
+        <v>152544.8</v>
+      </c>
+      <c r="X44" t="n">
+        <v>152533.49</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>152563.15</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>153371.94</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>153300.86</v>
       </c>
     </row>
     <row r="45">
@@ -2323,38 +4203,82 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>253467.02</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>284417.62</v>
+      </c>
+      <c r="C45" t="n">
+        <v>284377.15</v>
+      </c>
       <c r="D45" t="n">
-        <v>293643.39</v>
+        <v>287793.41</v>
       </c>
       <c r="E45" t="n">
-        <v>293509.87</v>
+        <v>284429.52</v>
       </c>
       <c r="F45" t="n">
-        <v>293482.67</v>
+        <v>284505.16</v>
       </c>
       <c r="G45" t="n">
-        <v>293349.22</v>
+        <v>284493.56</v>
       </c>
       <c r="H45" t="n">
-        <v>295457.68</v>
+        <v>284625.16</v>
       </c>
       <c r="I45" t="n">
-        <v>295636.62</v>
+        <v>284601.21</v>
       </c>
       <c r="J45" t="n">
-        <v>295618.98</v>
+        <v>294674.07</v>
       </c>
       <c r="K45" t="n">
-        <v>295434.8</v>
+        <v>294582.41</v>
       </c>
       <c r="L45" t="n">
-        <v>295460.66</v>
+        <v>294701.66</v>
       </c>
       <c r="M45" t="n">
-        <v>284417.62</v>
+        <v>353046.07</v>
+      </c>
+      <c r="N45" t="n">
+        <v>352921.69</v>
+      </c>
+      <c r="O45" t="n">
+        <v>375596</v>
+      </c>
+      <c r="P45" t="n">
+        <v>404080.35</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>404151.33</v>
+      </c>
+      <c r="R45" t="n">
+        <v>403975.65</v>
+      </c>
+      <c r="S45" t="n">
+        <v>428196.98</v>
+      </c>
+      <c r="T45" t="n">
+        <v>428327.58</v>
+      </c>
+      <c r="U45" t="n">
+        <v>428358.26</v>
+      </c>
+      <c r="V45" t="n">
+        <v>419570.57</v>
+      </c>
+      <c r="W45" t="n">
+        <v>419324.75</v>
+      </c>
+      <c r="X45" t="n">
+        <v>467192.13</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>467429.46</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>425051.58</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>425365.56</v>
       </c>
     </row>
     <row r="46">
@@ -2364,40 +4288,82 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371937.45</v>
+        <v>512311.78</v>
       </c>
       <c r="C46" t="n">
-        <v>371673.13</v>
+        <v>512442.21</v>
       </c>
       <c r="D46" t="n">
-        <v>372096.38</v>
+        <v>518125.12</v>
       </c>
       <c r="E46" t="n">
-        <v>512417.21</v>
+        <v>512413.01</v>
       </c>
       <c r="F46" t="n">
-        <v>512274.03</v>
+        <v>593406.58</v>
       </c>
       <c r="G46" t="n">
-        <v>512442.21</v>
+        <v>593414.35</v>
       </c>
       <c r="H46" t="n">
-        <v>512694.1</v>
+        <v>593509.13</v>
       </c>
       <c r="I46" t="n">
-        <v>512617.63</v>
+        <v>693693.6800000001</v>
       </c>
       <c r="J46" t="n">
-        <v>512729.59</v>
+        <v>762884.96</v>
       </c>
       <c r="K46" t="n">
-        <v>512588.08</v>
+        <v>762650.6</v>
       </c>
       <c r="L46" t="n">
-        <v>512467.23</v>
+        <v>763170.98</v>
       </c>
       <c r="M46" t="n">
-        <v>512311.78</v>
+        <v>762981.7</v>
+      </c>
+      <c r="N46" t="n">
+        <v>763091.62</v>
+      </c>
+      <c r="O46" t="n">
+        <v>762959.62</v>
+      </c>
+      <c r="P46" t="n">
+        <v>877361.97</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>877042.09</v>
+      </c>
+      <c r="R46" t="n">
+        <v>877479.39</v>
+      </c>
+      <c r="S46" t="n">
+        <v>876995.27</v>
+      </c>
+      <c r="T46" t="n">
+        <v>878554.99</v>
+      </c>
+      <c r="U46" t="n">
+        <v>877167.8</v>
+      </c>
+      <c r="V46" t="n">
+        <v>951969.73</v>
+      </c>
+      <c r="W46" t="n">
+        <v>951544.4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>951721.25</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>911647.78</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>911747.38</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>911688.16</v>
       </c>
     </row>
     <row r="47">
@@ -2407,40 +4373,82 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>166670.66</v>
+        <v>203601.97</v>
       </c>
       <c r="C47" t="n">
-        <v>176528.12</v>
+        <v>220521.43</v>
       </c>
       <c r="D47" t="n">
-        <v>196561.62</v>
+        <v>223044.75</v>
       </c>
       <c r="E47" t="n">
-        <v>200673.09</v>
+        <v>220557.09</v>
       </c>
       <c r="F47" t="n">
-        <v>200578.67</v>
+        <v>220551.93</v>
       </c>
       <c r="G47" t="n">
-        <v>200608.33</v>
+        <v>247546.31</v>
       </c>
       <c r="H47" t="n">
-        <v>212651.24</v>
+        <v>247556</v>
       </c>
       <c r="I47" t="n">
-        <v>202657.67</v>
+        <v>251627.54</v>
       </c>
       <c r="J47" t="n">
-        <v>217621.51</v>
+        <v>256594.63</v>
       </c>
       <c r="K47" t="n">
-        <v>195547.02</v>
+        <v>262498.81</v>
       </c>
       <c r="L47" t="n">
-        <v>209605.38</v>
+        <v>286669.86</v>
       </c>
       <c r="M47" t="n">
-        <v>203601.97</v>
+        <v>292697.1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>315518.92</v>
+      </c>
+      <c r="O47" t="n">
+        <v>324733.84</v>
+      </c>
+      <c r="P47" t="n">
+        <v>296610.03</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>367444.68</v>
+      </c>
+      <c r="R47" t="n">
+        <v>367368.61</v>
+      </c>
+      <c r="S47" t="n">
+        <v>367373.74</v>
+      </c>
+      <c r="T47" t="n">
+        <v>368130.69</v>
+      </c>
+      <c r="U47" t="n">
+        <v>357611.2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>357630</v>
+      </c>
+      <c r="W47" t="n">
+        <v>372552.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>377475.92</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>355422.75</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>333475.62</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>333506.03</v>
       </c>
     </row>
     <row r="48">
@@ -2450,40 +4458,82 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>362622.93</v>
+        <v>377205.33</v>
       </c>
       <c r="C48" t="n">
-        <v>362441.46</v>
+        <v>376937.21</v>
       </c>
       <c r="D48" t="n">
-        <v>362602.98</v>
+        <v>381207.21</v>
       </c>
       <c r="E48" t="n">
-        <v>362668.44</v>
+        <v>409680.99</v>
       </c>
       <c r="F48" t="n">
-        <v>377181.59</v>
+        <v>409745.45</v>
       </c>
       <c r="G48" t="n">
-        <v>377194.38</v>
+        <v>445850.25</v>
       </c>
       <c r="H48" t="n">
-        <v>377168.57</v>
+        <v>445665.28</v>
       </c>
       <c r="I48" t="n">
-        <v>377027.16</v>
+        <v>480526.72</v>
       </c>
       <c r="J48" t="n">
-        <v>377007.84</v>
+        <v>480776.72</v>
       </c>
       <c r="K48" t="n">
-        <v>376958.48</v>
+        <v>480588.91</v>
       </c>
       <c r="L48" t="n">
-        <v>377234.93</v>
+        <v>480555.87</v>
       </c>
       <c r="M48" t="n">
-        <v>377205.33</v>
+        <v>480843.7</v>
+      </c>
+      <c r="N48" t="n">
+        <v>445747.92</v>
+      </c>
+      <c r="O48" t="n">
+        <v>389107.63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>359938.05</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>359857.37</v>
+      </c>
+      <c r="R48" t="n">
+        <v>359775.31</v>
+      </c>
+      <c r="S48" t="n">
+        <v>359879.73</v>
+      </c>
+      <c r="T48" t="n">
+        <v>359789.24</v>
+      </c>
+      <c r="U48" t="n">
+        <v>359890.17</v>
+      </c>
+      <c r="V48" t="n">
+        <v>359761.19</v>
+      </c>
+      <c r="W48" t="n">
+        <v>385681.95</v>
+      </c>
+      <c r="X48" t="n">
+        <v>385561.47</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>385641.4</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>422971.03</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>422979.41</v>
       </c>
     </row>
     <row r="49">
@@ -2493,40 +4543,82 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>256133.99</v>
+        <v>251728.53</v>
       </c>
       <c r="C49" t="n">
-        <v>256093.93</v>
+        <v>238327.94</v>
       </c>
       <c r="D49" t="n">
-        <v>241154.27</v>
+        <v>241131.61</v>
       </c>
       <c r="E49" t="n">
-        <v>236887.14</v>
+        <v>241020.94</v>
       </c>
       <c r="F49" t="n">
-        <v>255547</v>
+        <v>238236.74</v>
       </c>
       <c r="G49" t="n">
-        <v>258376.06</v>
+        <v>259091.08</v>
       </c>
       <c r="H49" t="n">
-        <v>259117.3</v>
+        <v>259150.43</v>
       </c>
       <c r="I49" t="n">
-        <v>258994.23</v>
+        <v>259101.48</v>
       </c>
       <c r="J49" t="n">
-        <v>258992.22</v>
+        <v>259012.65</v>
       </c>
       <c r="K49" t="n">
-        <v>259064.57</v>
+        <v>259008.65</v>
       </c>
       <c r="L49" t="n">
-        <v>259191.24</v>
+        <v>256188.85</v>
       </c>
       <c r="M49" t="n">
-        <v>251728.53</v>
+        <v>241768.76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>237630.69</v>
+      </c>
+      <c r="O49" t="n">
+        <v>239780.52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>258970.62</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>281143.54</v>
+      </c>
+      <c r="R49" t="n">
+        <v>281191.26</v>
+      </c>
+      <c r="S49" t="n">
+        <v>281104.18</v>
+      </c>
+      <c r="T49" t="n">
+        <v>308165.65</v>
+      </c>
+      <c r="U49" t="n">
+        <v>307963.5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>303584.23</v>
+      </c>
+      <c r="W49" t="n">
+        <v>303502.8</v>
+      </c>
+      <c r="X49" t="n">
+        <v>359878.4</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>352714.97</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>352750.71</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>352941.75</v>
       </c>
     </row>
     <row r="50">
@@ -2536,40 +4628,82 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1247721.79</v>
+        <v>1280109.48</v>
       </c>
       <c r="C50" t="n">
-        <v>1248096.14</v>
+        <v>1280259.99</v>
       </c>
       <c r="D50" t="n">
-        <v>1269076.97</v>
+        <v>1294980.55</v>
       </c>
       <c r="E50" t="n">
-        <v>1338276.35</v>
+        <v>1280599.94</v>
       </c>
       <c r="F50" t="n">
-        <v>1338720.33</v>
+        <v>1324683.36</v>
       </c>
       <c r="G50" t="n">
-        <v>1338547.29</v>
+        <v>1340374.56</v>
       </c>
       <c r="H50" t="n">
-        <v>1338482.54</v>
+        <v>1424971.61</v>
       </c>
       <c r="I50" t="n">
-        <v>1338322.12</v>
+        <v>1470999.42</v>
       </c>
       <c r="J50" t="n">
-        <v>1338871.55</v>
+        <v>1513671.48</v>
       </c>
       <c r="K50" t="n">
-        <v>1338273.37</v>
+        <v>1514505.04</v>
       </c>
       <c r="L50" t="n">
-        <v>1280358.26</v>
+        <v>1514146.73</v>
       </c>
       <c r="M50" t="n">
-        <v>1280109.48</v>
+        <v>1533692.46</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1533248.59</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1533876.82</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1264107.38</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1303480.3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1303216.03</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1303724.44</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1284290.71</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1248585.07</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1248622.6</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1180635.21</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1180811.7</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1133347.19</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1141505.68</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1124952.41</v>
       </c>
     </row>
     <row r="51">
@@ -2579,305 +4713,507 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2797333.67</v>
+        <v>2646556.15</v>
       </c>
       <c r="C51" t="n">
-        <v>2797583.94</v>
+        <v>2646584.08</v>
       </c>
       <c r="D51" t="n">
-        <v>2797186.83</v>
+        <v>2566628.22</v>
       </c>
       <c r="E51" t="n">
-        <v>2797304.32</v>
+        <v>2538402.82</v>
       </c>
       <c r="F51" t="n">
-        <v>2796995.25</v>
+        <v>2538850.33</v>
       </c>
       <c r="G51" t="n">
-        <v>2777717.94</v>
+        <v>2538049.83</v>
       </c>
       <c r="H51" t="n">
-        <v>2788795.91</v>
+        <v>2538605</v>
       </c>
       <c r="I51" t="n">
-        <v>2764255.63</v>
+        <v>2537973.11</v>
       </c>
       <c r="J51" t="n">
-        <v>2646589.03</v>
+        <v>2537747.43</v>
       </c>
       <c r="K51" t="n">
-        <v>2646042.56</v>
+        <v>2538531.23</v>
       </c>
       <c r="L51" t="n">
-        <v>2646418.55</v>
+        <v>2538251.61</v>
       </c>
       <c r="M51" t="n">
-        <v>2646556.15</v>
+        <v>2450654.6</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2418584.38</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2418505.69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2401396.08</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2363230.75</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2361541.17</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2306821.17</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2221757.45</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2183848.41</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2181320.24</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2180995.7</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2182153.58</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2182031.8</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2181691.54</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2180957.09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3035007.23</v>
+        <v>1380959.81</v>
       </c>
       <c r="C52" t="n">
-        <v>3138396.02</v>
+        <v>1381515.84</v>
       </c>
       <c r="D52" t="n">
-        <v>3295528.57</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+        <v>1396677.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1381469.98</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1462827.54</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1462797.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1462984.76</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1462478.44</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1462641.92</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1462614.43</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1462349.87</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1590905.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1592362.23</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1692901.2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1808876.08</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1972886.92</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2102557.78</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2100477.34</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2231857.77</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2229436.33</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2599594.01</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2843757.06</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3076884.38</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3078389.29</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>3198675.4</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>3198825.13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>791305.73</v>
+        <v>264862.4</v>
       </c>
       <c r="C53" t="n">
-        <v>792215.97</v>
+        <v>265008.37</v>
       </c>
       <c r="D53" t="n">
-        <v>791909</v>
+        <v>267734.85</v>
       </c>
       <c r="E53" t="n">
-        <v>968064.26</v>
+        <v>265037.12</v>
       </c>
       <c r="F53" t="n">
-        <v>1111976.21</v>
+        <v>264780.94</v>
       </c>
       <c r="G53" t="n">
-        <v>1217800.75</v>
+        <v>264818.97</v>
       </c>
       <c r="H53" t="n">
-        <v>1218305.75</v>
+        <v>264934.16</v>
       </c>
       <c r="I53" t="n">
-        <v>1319470.49</v>
+        <v>264682.91</v>
       </c>
       <c r="J53" t="n">
-        <v>1382507.41</v>
+        <v>265113.03</v>
       </c>
       <c r="K53" t="n">
-        <v>1380766.51</v>
+        <v>264996.19</v>
       </c>
       <c r="L53" t="n">
-        <v>1382264.96</v>
+        <v>265359.06</v>
       </c>
       <c r="M53" t="n">
-        <v>1380959.81</v>
+        <v>264623.73</v>
+      </c>
+      <c r="N53" t="n">
+        <v>264668.62</v>
+      </c>
+      <c r="O53" t="n">
+        <v>265136.27</v>
+      </c>
+      <c r="P53" t="n">
+        <v>265293.17</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>322584.77</v>
+      </c>
+      <c r="R53" t="n">
+        <v>322810.46</v>
+      </c>
+      <c r="S53" t="n">
+        <v>322510.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>322928.44</v>
+      </c>
+      <c r="U53" t="n">
+        <v>322000.82</v>
+      </c>
+      <c r="V53" t="n">
+        <v>322226.23</v>
+      </c>
+      <c r="W53" t="n">
+        <v>393677.4</v>
+      </c>
+      <c r="X53" t="n">
+        <v>393768.51</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>392807.08</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>393068.06</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>393722.93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>265311.28</v>
+        <v>190190.79</v>
       </c>
       <c r="C54" t="n">
-        <v>265070.5</v>
+        <v>190264.48</v>
       </c>
       <c r="D54" t="n">
-        <v>265317.49</v>
+        <v>192315.58</v>
       </c>
       <c r="E54" t="n">
-        <v>264592.37</v>
+        <v>190166.81</v>
       </c>
       <c r="F54" t="n">
-        <v>265455.94</v>
+        <v>190270.8</v>
       </c>
       <c r="G54" t="n">
-        <v>264931.1</v>
+        <v>205649.71</v>
       </c>
       <c r="H54" t="n">
-        <v>264978.08</v>
+        <v>205719.52</v>
       </c>
       <c r="I54" t="n">
-        <v>265016.38</v>
+        <v>205656.32</v>
       </c>
       <c r="J54" t="n">
-        <v>265182.97</v>
+        <v>205674.25</v>
       </c>
       <c r="K54" t="n">
-        <v>265175.33</v>
+        <v>205671.82</v>
       </c>
       <c r="L54" t="n">
-        <v>265123.83</v>
+        <v>205722.79</v>
       </c>
       <c r="M54" t="n">
-        <v>264862.4</v>
+        <v>205719.57</v>
+      </c>
+      <c r="N54" t="n">
+        <v>205656.24</v>
+      </c>
+      <c r="O54" t="n">
+        <v>205648.73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>205745.93</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>215413.39</v>
+      </c>
+      <c r="R54" t="n">
+        <v>215414.34</v>
+      </c>
+      <c r="S54" t="n">
+        <v>215392.25</v>
+      </c>
+      <c r="T54" t="n">
+        <v>215597.8</v>
+      </c>
+      <c r="U54" t="n">
+        <v>215318.83</v>
+      </c>
+      <c r="V54" t="n">
+        <v>215379.45</v>
+      </c>
+      <c r="W54" t="n">
+        <v>215335.7</v>
+      </c>
+      <c r="X54" t="n">
+        <v>197678.48</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>197658.88</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>209700.6</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>209751.32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>179215.94</v>
+        <v>578269.13</v>
       </c>
       <c r="C55" t="n">
-        <v>179222.74</v>
+        <v>577669.87</v>
       </c>
       <c r="D55" t="n">
-        <v>179187.38</v>
+        <v>581450.22</v>
       </c>
       <c r="E55" t="n">
-        <v>179256.18</v>
+        <v>575121.03</v>
       </c>
       <c r="F55" t="n">
-        <v>179222.47</v>
+        <v>579801.62</v>
       </c>
       <c r="G55" t="n">
-        <v>179283.83</v>
+        <v>589051.75</v>
       </c>
       <c r="H55" t="n">
-        <v>179286.51</v>
+        <v>591112.22</v>
       </c>
       <c r="I55" t="n">
-        <v>179185.61</v>
+        <v>602996.11</v>
       </c>
       <c r="J55" t="n">
-        <v>179205.8</v>
+        <v>611539.97</v>
       </c>
       <c r="K55" t="n">
-        <v>179239.03</v>
+        <v>613515.78</v>
       </c>
       <c r="L55" t="n">
-        <v>190179.33</v>
+        <v>618469.38</v>
       </c>
       <c r="M55" t="n">
-        <v>190190.79</v>
+        <v>634008.2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>644049.85</v>
+      </c>
+      <c r="O55" t="n">
+        <v>649717.88</v>
+      </c>
+      <c r="P55" t="n">
+        <v>658686.91</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>672293.47</v>
+      </c>
+      <c r="R55" t="n">
+        <v>681925.26</v>
+      </c>
+      <c r="S55" t="n">
+        <v>683209.8199999999</v>
+      </c>
+      <c r="T55" t="n">
+        <v>675538.62</v>
+      </c>
+      <c r="U55" t="n">
+        <v>668406.17</v>
+      </c>
+      <c r="V55" t="n">
+        <v>686582.5699999999</v>
+      </c>
+      <c r="W55" t="n">
+        <v>702553.67</v>
+      </c>
+      <c r="X55" t="n">
+        <v>715597.63</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>699869.1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>706962.49</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>697012.8199999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>103625.8</v>
+        <v>30648263.95</v>
       </c>
       <c r="C56" t="n">
-        <v>103640.49</v>
+        <v>30616503.35</v>
       </c>
       <c r="D56" t="n">
-        <v>103621.96</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>623561.03</v>
-      </c>
-      <c r="C57" t="n">
-        <v>635135.1899999999</v>
-      </c>
-      <c r="D57" t="n">
-        <v>627958.46</v>
-      </c>
-      <c r="E57" t="n">
-        <v>593818.67</v>
-      </c>
-      <c r="F57" t="n">
-        <v>596702.74</v>
-      </c>
-      <c r="G57" t="n">
-        <v>595771.36</v>
-      </c>
-      <c r="H57" t="n">
-        <v>598775.2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>594837.62</v>
-      </c>
-      <c r="J57" t="n">
-        <v>590732.66</v>
-      </c>
-      <c r="K57" t="n">
-        <v>587347.89</v>
-      </c>
-      <c r="L57" t="n">
-        <v>582307.5</v>
-      </c>
-      <c r="M57" t="n">
-        <v>578269.13</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>33672295.76</v>
-      </c>
-      <c r="C58" t="n">
-        <v>26675677.8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>33909756.72</v>
-      </c>
-      <c r="E58" t="n">
-        <v>31472389.69</v>
-      </c>
-      <c r="F58" t="n">
-        <v>31625245.33</v>
-      </c>
-      <c r="G58" t="n">
-        <v>31575881.85</v>
-      </c>
-      <c r="H58" t="n">
-        <v>31735085.68</v>
-      </c>
-      <c r="I58" t="n">
-        <v>31526393.63</v>
-      </c>
-      <c r="J58" t="n">
-        <v>31308831.08</v>
-      </c>
-      <c r="K58" t="n">
-        <v>31129438.21</v>
-      </c>
-      <c r="L58" t="n">
-        <v>30862297.32</v>
-      </c>
-      <c r="M58" t="n">
-        <v>30648263.95</v>
+        <v>30816861.59</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30481414.85</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30729486.02</v>
+      </c>
+      <c r="G56" t="n">
+        <v>31219742.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>31328947.52</v>
+      </c>
+      <c r="I56" t="n">
+        <v>31958793.88</v>
+      </c>
+      <c r="J56" t="n">
+        <v>32411618.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>32516336.29</v>
+      </c>
+      <c r="L56" t="n">
+        <v>32778877.26</v>
+      </c>
+      <c r="M56" t="n">
+        <v>33602434.53</v>
+      </c>
+      <c r="N56" t="n">
+        <v>34134642.2</v>
+      </c>
+      <c r="O56" t="n">
+        <v>34435047.68</v>
+      </c>
+      <c r="P56" t="n">
+        <v>34251719.3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>34959260.52</v>
+      </c>
+      <c r="R56" t="n">
+        <v>35460113.43</v>
+      </c>
+      <c r="S56" t="n">
+        <v>35526910.67</v>
+      </c>
+      <c r="T56" t="n">
+        <v>35128008.13</v>
+      </c>
+      <c r="U56" t="n">
+        <v>34757120.66</v>
+      </c>
+      <c r="V56" t="n">
+        <v>35702293.4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>36532790.68</v>
+      </c>
+      <c r="X56" t="n">
+        <v>37211076.95</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>36393193.08</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>36762049.28</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>36244666.59</v>
       </c>
     </row>
   </sheetData>
